--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="859">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">Manifold Venom</t>
   </si>
   <si>
-    <t xml:space="preserve">A collection of dangerous poisons that can be applied to weapons or slipped into drinks. Can be used to sap strength, cause blindness, or induce sleep. Requires an action if applied to a weapon in combat.</t>
+    <t xml:space="preserve">A collection of dangerous poisons that can be applied to weapons or slipped into drinks. Can be used to sap strength, cause blindness, or render targets unconscious. Requires an action if applied to a weapon in combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Nerve Thorns</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">Brimstone Powder</t>
   </si>
   <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. Can be used to set explosive traps, turn fire into waterproof hellfire, and bribe unsavory merchants. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. Can be used to set explosive traps, turn fire into waterproof hellfire, and bribe unsavory merchants. You can expend a Potion to create a hellfire grenade that deals two boxes of Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Fey Venom</t>
@@ -321,13 +321,13 @@
     <t xml:space="preserve">Talisman of Fey</t>
   </si>
   <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon pixies, bewitch the senses, and change your appearance. You have Advantage when using Presence to confuse and bewilder others.</t>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon will-o-wisps, bewitch the senses, and change your appearance. You have Advantage when using Presence to confuse and bewilder others.</t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Jinn</t>
   </si>
   <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth blistering hot wind, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth desert winds, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
   </si>
   <si>
     <t xml:space="preserve">Corsair</t>
@@ -636,961 +636,967 @@
     <t xml:space="preserve">Talisman of Divination</t>
   </si>
   <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherd’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer’s Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper Bowstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concussive Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grease Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron-Sighted Rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphos Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchcoat Boomstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totemic Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Gauntlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break down doors. You are able to jump several feet into the air without issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abjuring Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Censure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Wildlife are repelled by the smell, making it useful for setting up camp in dangerous areas. You have Advantage when defending against magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off spirits. You are immune to curses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolling Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception, Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility, Cunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength, Bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with enchanted weapons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and two +1 skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisons, Throwing Needles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusions, Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of the Courier Guild with expertise in stagecraft and illusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Swords, Duelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mist Rod, Bombs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summoning, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marauder, Piracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildlife, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructs, Imbued Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curses, Magic Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Weapons, Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An honorable knight with a holy sword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builder, Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An infantryman trained in construction and destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A warrior of tradition, known for their affinity with the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns, Grenades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementalist, War Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elemental magician renowned for their power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battlemage, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Hunter, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mage hunter and monster slayer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat, Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonant Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallwalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cut Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intricate Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingering Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Metal Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Spatiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiate light and heat around yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draining Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcane Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladiator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallurgist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runehammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrolic Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eye-catching design of messy spirals. Can be used to weaken objects, cause Mental damage, and produce an attracting force. The strength of the effect is proportional to the size of sigil drawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A neatly structured design of interlocking symbols. Can be used to reinforce objects, protect against blades, and produce a repelling force. The strength of the effect is proportional to the size of sigil drawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of wax stamps made from an inert material. Can be used to quickly mark objects with low-power sigils.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dagger that sweats acid, useful for etching stone. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fearsome design of jagged edges. Can be used to violently destroy or damage an object. The strength of the effect is proportional to the size of sigil drawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A beautiful design of graceful curves. Can be used to build or reshape an object. The strength of the effect is proportional to the size of sigil drawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouncing Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiplash Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyglass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shepherd’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer’s Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whisper Bowstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concussive Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grease Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron-Sighted Rifle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphos Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchcoat Boomstick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totemic Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Gauntlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Terra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break down doors. You are able to jump several feet into the air without issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Templar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abjuring Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Censure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil. You are immune to curses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolling Bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to coax the unsuspecting into falling asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception, Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agility, Cunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength, Bravery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with enchanted weapons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and two +1 skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisons, Throwing Needles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illusions, Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member of the Courier Guild with expertise in stagecraft and illusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Swords, Duelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mist Rod, Bombs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summoning, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marauder, Piracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructs, Imbued Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curses, Magic Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Weapons, Armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An honorable knight with a holy sword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Builder, Warrior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An infantryman trained in construction and destruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A warrior of tradition, known for their affinity with the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guns, Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementalist, War Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elemental magician renowned for their power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battlemage, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage Hunter, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mage hunter and monster slayer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat, Motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonant Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabotage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallwalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cut Above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatal Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intricate Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingering Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonic Rend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Metal Jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Spatiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Temporality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Hop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equilibrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiate light and heat around yourself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draining Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane Archer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gladiator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallurgist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Decomposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runehammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrolic Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An eye-catching design of messy spirals. Can be used to weaken objects, cause Mental damage, and produce an attracting force. The strength of the effect is proportional to the size of sigil drawn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A neatly structured design of interlocking symbols. Can be used to reinforce objects, protect against blades, and produce a repelling force. The strength of the effect is proportional to the size of sigil drawn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of wax stamps made from an inert material. Can be used to quickly mark objects with low-power sigils.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dagger that sweats acid, useful for etching stone. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fearsome design of jagged edges. Can be used to violently destroy or damage an object. The strength of the effect is proportional to the size of sigil drawn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A beautiful design of graceful curves. Can be used to build or reshape an object. The strength of the effect is proportional to the size of sigil drawn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouncing Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiplash Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skyglass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
   </si>
   <si>
     <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
@@ -2680,7 +2686,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2696,7 +2702,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2720,13 +2726,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFF5CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2738,7 +2738,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2864,7 +2864,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2977,27 +2977,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3009,15 +2993,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3097,22 +3097,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3122,7 +3106,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3162,13 +3146,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFB66C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF5CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3237,7 +3214,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -3266,7 +3243,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFA6A6"/>
@@ -3333,7 +3310,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3883,7 +3860,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>86</v>
@@ -4077,104 +4054,104 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4689,104 +4666,104 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="27" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="27" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="27" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4995,104 +4972,104 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="27" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="27" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="27" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5232,7 +5209,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="20" t="s">
         <v>5</v>
       </c>
@@ -5301,104 +5278,104 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="27" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="27" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="27" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="27" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="27" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="27" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5449,7 +5426,7 @@
       <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>288</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -5457,13 +5434,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5471,7 +5448,7 @@
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>292</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -5482,7 +5459,7 @@
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>294</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -5490,13 +5467,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5544,222 +5521,222 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="37" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="37" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="37" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="37" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="37" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5814,920 +5791,920 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="41" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="41" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="45" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="45" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="45" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="45" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="45" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="41" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="41" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="41" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="49" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="49" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="49" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="49" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="49" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="49" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="53" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="53" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="53" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="53" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="53" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="53" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="57" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="56" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="57" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="57" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="56" t="s">
         <v>410</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="56" t="s">
         <v>411</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="57" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="59" t="s">
+      <c r="A36" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="57" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="59" t="s">
+      <c r="A37" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="56" t="s">
         <v>415</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="57" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="45" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="47" t="s">
+      <c r="A39" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="45" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="47" t="s">
+      <c r="A43" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="49" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="51" t="s">
+      <c r="A45" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="49" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="51" t="s">
+      <c r="A46" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="48" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="49" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="49" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="51" t="s">
+      <c r="A48" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E48" s="53"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E49" s="53"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="59" t="s">
+      <c r="A50" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="59" t="s">
+      <c r="A51" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="59" t="s">
+      <c r="A52" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="59" t="s">
+      <c r="A53" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="59" t="s">
+      <c r="A54" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="61"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="59" t="s">
+      <c r="A55" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="59" t="s">
+      <c r="A56" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="61"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="59" t="s">
+      <c r="A58" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="61"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="61"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="59" t="s">
+      <c r="A60" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="61"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20"/>
@@ -8112,13 +8089,13 @@
         <v>17</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8135,13 +8112,13 @@
         <v>37</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8158,13 +8135,13 @@
         <v>37</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8181,13 +8158,13 @@
         <v>17</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8221,19 +8198,19 @@
         <v>69</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8250,13 +8227,13 @@
         <v>17</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8273,13 +8250,13 @@
         <v>17</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8290,19 +8267,19 @@
         <v>69</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8319,13 +8296,13 @@
         <v>17</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8342,13 +8319,13 @@
         <v>127</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8388,13 +8365,13 @@
         <v>17</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8405,19 +8382,19 @@
         <v>123</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8451,19 +8428,19 @@
         <v>123</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8605,417 +8582,417 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>517</v>
+      <c r="E62" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>199</v>
+      <c r="E64" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>518</v>
+      <c r="E65" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>519</v>
+      <c r="E66" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>520</v>
+      <c r="E68" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>521</v>
+      <c r="E69" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="C70" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="G70" s="31" t="s">
-        <v>523</v>
+      <c r="E70" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>524</v>
+      <c r="E71" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>525</v>
+      <c r="E72" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>526</v>
+      <c r="E73" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="G74" s="31" t="s">
-        <v>527</v>
+      <c r="E74" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="G75" s="27" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F76" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="G76" s="27" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="27" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="G78" s="27" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E79" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>528</v>
+      <c r="E79" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9032,13 +9009,13 @@
         <v>17</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9101,13 +9078,13 @@
         <v>17</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,13 +9124,13 @@
         <v>37</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9216,13 +9193,13 @@
         <v>45</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9239,13 +9216,13 @@
         <v>17</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,13 +9239,13 @@
         <v>37</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,13 +9262,13 @@
         <v>37</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9302,19 +9279,19 @@
         <v>206</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,13 +9308,13 @@
         <v>17</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,13 +9331,13 @@
         <v>37</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9377,13 +9354,13 @@
         <v>37</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,13 +9400,13 @@
         <v>30</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,19 +9417,19 @@
         <v>54</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9492,13 +9469,13 @@
         <v>20</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9515,13 +9492,13 @@
         <v>17</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,13 +9515,13 @@
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,13 +9561,13 @@
         <v>17</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,13 +9607,13 @@
         <v>17</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9699,13 +9676,13 @@
         <v>75</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9745,13 +9722,13 @@
         <v>17</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,19 +9762,19 @@
         <v>177</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9904,13 +9881,13 @@
         <v>220</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9919,13 +9896,13 @@
         <v>220</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>344</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9954,16 +9931,16 @@
         <v>68</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9971,16 +9948,16 @@
         <v>68</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9988,16 +9965,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10005,16 +9982,16 @@
         <v>68</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10022,16 +9999,16 @@
         <v>68</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10039,68 +10016,68 @@
         <v>68</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10125,190 +10102,190 @@
       <c r="E19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>578</v>
+      <c r="E20" s="27" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>520</v>
+      <c r="E21" s="27" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>521</v>
+      <c r="E22" s="27" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>523</v>
+      <c r="E23" s="27" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>580</v>
+      <c r="E24" s="27" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>524</v>
+      <c r="E25" s="27" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -10441,16 +10418,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10458,16 +10435,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10503,16 +10480,16 @@
         <v>53</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10520,7 +10497,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>124</v>
@@ -10529,7 +10506,7 @@
         <v>75</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10537,7 +10514,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>180</v>
@@ -10546,7 +10523,7 @@
         <v>17</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10554,7 +10531,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>184</v>
@@ -10563,7 +10540,7 @@
         <v>75</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10571,16 +10548,16 @@
         <v>53</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10588,7 +10565,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>188</v>
@@ -10611,13 +10588,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10630,20 +10607,20 @@
         <v>75</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10668,13 +10645,13 @@
         <v>150</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,10 +10665,10 @@
         <v>156</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,13 +10679,13 @@
         <v>150</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10725,7 +10702,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10742,7 +10719,7 @@
         <v>17</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10753,13 +10730,13 @@
         <v>150</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10856,13 +10833,13 @@
         <v>69</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>344</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10873,13 +10850,13 @@
         <v>69</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10896,7 +10873,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10907,13 +10884,13 @@
         <v>69</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10930,7 +10907,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10941,13 +10918,13 @@
         <v>69</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10964,7 +10941,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10975,13 +10952,13 @@
         <v>123</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>127</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10998,7 +10975,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11009,13 +10986,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11026,13 +11003,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11043,13 +11020,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11060,13 +11037,13 @@
         <v>220</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>344</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11077,13 +11054,13 @@
         <v>220</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11094,13 +11071,13 @@
         <v>220</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11111,13 +11088,13 @@
         <v>220</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11134,7 +11111,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11145,319 +11122,319 @@
         <v>220</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>630</v>
+      <c r="E20" s="27" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>632</v>
+      <c r="E21" s="27" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>634</v>
+      <c r="E22" s="27" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>635</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>636</v>
+      <c r="E23" s="27" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>638</v>
+      <c r="E24" s="27" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>640</v>
+      <c r="E25" s="27" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>642</v>
+      <c r="E26" s="27" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>644</v>
+      <c r="E27" s="27" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>646</v>
+      <c r="E28" s="27" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>648</v>
+      <c r="E29" s="27" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>650</v>
+      <c r="E30" s="27" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>652</v>
+      <c r="E31" s="27" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>654</v>
+      <c r="E32" s="27" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>656</v>
+      <c r="E33" s="27" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>658</v>
+      <c r="E34" s="27" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>660</v>
+      <c r="E35" s="27" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>662</v>
+      <c r="E36" s="27" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>664</v>
+      <c r="E37" s="27" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11474,7 +11451,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11491,7 +11468,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11502,13 +11479,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11519,13 +11496,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11536,13 +11513,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11553,13 +11530,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>384</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11570,13 +11547,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11593,7 +11570,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11610,7 +11587,7 @@
         <v>127</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11621,13 +11598,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>384</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11638,13 +11615,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>384</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11655,13 +11632,13 @@
         <v>39</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>354</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11672,13 +11649,13 @@
         <v>206</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11689,13 +11666,13 @@
         <v>206</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11706,13 +11683,13 @@
         <v>206</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11723,13 +11700,13 @@
         <v>206</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>354</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11740,13 +11717,13 @@
         <v>206</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11757,13 +11734,13 @@
         <v>206</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>384</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11771,16 +11748,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11788,16 +11765,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>354</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11805,16 +11782,16 @@
         <v>53</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11822,16 +11799,16 @@
         <v>53</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11839,16 +11816,16 @@
         <v>53</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11856,7 +11833,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>66</v>
@@ -11865,7 +11842,7 @@
         <v>344</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11876,13 +11853,13 @@
         <v>164</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>402</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11899,7 +11876,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11910,13 +11887,13 @@
         <v>164</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11927,13 +11904,13 @@
         <v>164</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>354</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11944,13 +11921,13 @@
         <v>164</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11961,13 +11938,13 @@
         <v>164</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11975,16 +11952,16 @@
         <v>53</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11992,16 +11969,16 @@
         <v>53</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12009,16 +11986,16 @@
         <v>53</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>354</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12026,16 +12003,16 @@
         <v>53</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>402</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12043,16 +12020,16 @@
         <v>53</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12060,16 +12037,16 @@
         <v>53</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>402</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12172,13 +12149,13 @@
         <v>69</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12192,10 +12169,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12209,10 +12186,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12226,10 +12203,10 @@
         <v>47</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12243,10 +12220,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12257,13 +12234,13 @@
         <v>69</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12274,13 +12251,13 @@
         <v>123</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12291,13 +12268,13 @@
         <v>123</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12308,13 +12285,13 @@
         <v>123</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12325,13 +12302,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12342,13 +12319,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12359,13 +12336,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>750</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12379,10 +12356,10 @@
         <v>221</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12393,13 +12370,13 @@
         <v>220</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12410,13 +12387,13 @@
         <v>220</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12427,13 +12404,13 @@
         <v>220</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12447,10 +12424,10 @@
         <v>232</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12461,319 +12438,319 @@
         <v>220</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>762</v>
+      <c r="C20" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>635</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="C24" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="C25" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="B26" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="B27" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="C28" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="C29" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
+      <c r="C30" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B31" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+      <c r="C31" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
+      <c r="B32" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
+      <c r="B33" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B34" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
+      <c r="C34" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B35" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="C35" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B36" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="C36" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B37" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>785</v>
+      <c r="C37" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12784,13 +12761,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12801,13 +12778,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12818,13 +12795,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12835,13 +12812,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12852,13 +12829,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12869,13 +12846,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12886,13 +12863,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12903,13 +12880,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12920,13 +12897,13 @@
         <v>39</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12937,13 +12914,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12954,13 +12931,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12971,13 +12948,13 @@
         <v>39</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12988,13 +12965,13 @@
         <v>206</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13005,13 +12982,13 @@
         <v>206</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13022,13 +12999,13 @@
         <v>206</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13039,13 +13016,13 @@
         <v>206</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13056,13 +13033,13 @@
         <v>206</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13073,13 +13050,13 @@
         <v>206</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13087,16 +13064,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13104,16 +13081,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13121,16 +13098,16 @@
         <v>53</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13138,16 +13115,16 @@
         <v>53</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13155,16 +13132,16 @@
         <v>53</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13172,16 +13149,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13192,13 +13169,13 @@
         <v>164</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13209,13 +13186,13 @@
         <v>164</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13226,13 +13203,13 @@
         <v>164</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13243,13 +13220,13 @@
         <v>164</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13260,13 +13237,13 @@
         <v>164</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13277,13 +13254,13 @@
         <v>164</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13291,16 +13268,16 @@
         <v>53</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13308,16 +13285,16 @@
         <v>53</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13325,16 +13302,16 @@
         <v>53</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13342,16 +13319,16 @@
         <v>53</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13359,16 +13336,16 @@
         <v>53</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13376,16 +13353,16 @@
         <v>53</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kit" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Class!$A$1:$C$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$127</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$133</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Advanced'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Dump'!$A$1:$E$109</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Experimental'!$A$1:$E$115</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="922">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -1121,6 +1121,45 @@
     <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
   </si>
   <si>
+    <t xml:space="preserve">Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. If destroyed, you can call it back into the world with a bird feather. You have Advantage when noticing danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flying Broom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted staff built off of the same principles as airships. Can be used to fly through the air with ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slowing Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon reduces a target’s ability to react quickly, think clearly, and pursue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that influences positive emotions. Can be used to calm others, improve moods, and dimish hostilities. When you fail to influence someone with Presence, they do not become hostile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to restore damaged objects and heal wounds. You have Advantage when repairing objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow Perfume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bottle of alchemic perfume that fogs minds. Can be used to erase recent memories, lower someone’s guard, and become less noticable. You have Advantage when using Presence to hypnotize or charm others.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wizard</t>
   </si>
   <si>
@@ -1339,6 +1378,12 @@
     <t xml:space="preserve">A mage hunter and monster slayer.</t>
   </si>
   <si>
+    <t xml:space="preserve">Persuasion, Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of a courier guild with a flying broom.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heat, Motion</t>
   </si>
   <si>
@@ -1726,13 +1771,13 @@
     <t xml:space="preserve">Elixir</t>
   </si>
   <si>
-    <t xml:space="preserve">Witch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying Broom</t>
+    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. You have Advantage when noticing danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Jinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that bends probability in a harmful fashion. Can be used to bestow misfortune, cause accidents, and harm enemies indirectly. </t>
   </si>
   <si>
     <t xml:space="preserve">Active</t>
@@ -3057,7 +3102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3073,7 +3118,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -3097,7 +3142,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -3128,6 +3173,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
         <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -3247,7 +3298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3448,10 +3499,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3528,6 +3575,22 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3537,7 +3600,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3612,6 +3675,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFF6F9D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFDBB6"/>
         </patternFill>
       </fill>
@@ -3655,7 +3725,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -3675,7 +3745,7 @@
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
@@ -3687,7 +3757,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFE0C2CD"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFAFD095"/>
@@ -3752,10 +3822,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E127" activeCellId="0" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5705,7 +5775,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
@@ -5825,109 +5895,211 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D122" s="30" t="s">
+      <c r="B128" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="28" t="s">
+      <c r="E128" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D123" s="30" t="s">
+      <c r="B129" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="28" t="s">
+      <c r="E129" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" s="30" t="s">
+      <c r="B130" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D130" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E124" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="28" t="s">
+      <c r="E130" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B125" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="D125" s="30" t="s">
+      <c r="B131" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E125" s="32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="28" t="s">
+      <c r="E131" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" s="30" t="s">
+      <c r="B132" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D132" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E126" s="32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="28" t="s">
+      <c r="E132" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B127" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E127" s="32" t="s">
+      <c r="B133" s="29" t="s">
         <v>307</v>
       </c>
+      <c r="C133" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E127"/>
+  <autoFilter ref="A1:E133"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5974,10 +6146,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5985,10 +6157,10 @@
         <v>211</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5996,10 +6168,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,21 +6179,21 @@
         <v>54</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6042,10 +6214,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6058,7 +6230,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -6072,10 +6244,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,10 +6255,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,10 +6266,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,10 +6277,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,10 +6288,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,10 +6299,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,10 +6310,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,10 +6321,10 @@
         <v>114</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,10 +6332,10 @@
         <v>127</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,10 +6343,10 @@
         <v>140</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,10 +6354,10 @@
         <v>155</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,10 +6365,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,10 +6376,10 @@
         <v>182</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,10 +6387,10 @@
         <v>197</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6226,10 +6398,10 @@
         <v>212</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,10 +6409,10 @@
         <v>226</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,10 +6420,10 @@
         <v>240</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,10 +6431,10 @@
         <v>254</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,10 +6442,10 @@
         <v>267</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,25 +6453,36 @@
         <v>281</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>361</v>
+      <c r="B22" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C22"/>
+  <autoFilter ref="A1:C23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6318,8 +6501,8 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6349,920 +6532,920 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="A2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>364</v>
+      <c r="E2" s="56" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>367</v>
+      <c r="A3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="A4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>369</v>
+      <c r="E4" s="56" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>371</v>
+      <c r="A5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="A6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>372</v>
+      <c r="E6" s="56" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="A7" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>374</v>
+      <c r="E7" s="56" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>377</v>
+      <c r="C8" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>379</v>
+      <c r="C9" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="57" t="s">
+      <c r="C10" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>381</v>
       </c>
+      <c r="E10" s="60" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>383</v>
+      <c r="C11" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>385</v>
+      <c r="C12" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>387</v>
+      <c r="C13" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>389</v>
+      <c r="C14" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>390</v>
+      <c r="E15" s="56" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="E20" s="64" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>409</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>415</v>
+      <c r="E27" s="68" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>417</v>
+      <c r="A28" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>405</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>419</v>
+      <c r="A29" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" s="64" t="s">
+      <c r="A30" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="D36" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="D30" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="67" t="s">
+      <c r="E36" s="72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>429</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>436</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>437</v>
+      <c r="C37" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>440</v>
+      <c r="A38" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>442</v>
+      <c r="A39" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="A40" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
+      <c r="A42" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="A43" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>445</v>
+      <c r="A44" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>447</v>
+      <c r="A45" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>448</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>449</v>
+      <c r="A46" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>451</v>
+      <c r="A47" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="61"/>
+      <c r="A48" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E49" s="61"/>
+      <c r="A49" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="64"/>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
+      <c r="A50" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
+      <c r="A51" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="69"/>
+      <c r="A52" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
+      <c r="A53" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72"/>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="69"/>
+      <c r="A54" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="72"/>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
+      <c r="A55" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="67" t="s">
+      <c r="A56" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="72"/>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="67" t="s">
+      <c r="A57" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="69"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="69"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72"/>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="67" t="s">
+      <c r="A59" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="69"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="67" t="s">
+      <c r="A60" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="69"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="72"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="67" t="s">
+      <c r="A61" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="72"/>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23"/>
@@ -7311,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -7322,7 +7505,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -7333,7 +7516,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -7344,7 +7527,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -7355,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -7366,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -7377,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -7388,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -7399,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -7410,7 +7593,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -7421,7 +7604,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -7432,7 +7615,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -7466,10 +7649,10 @@
         <v>121</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,7 +7666,7 @@
         <v>123</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>124</v>
@@ -7503,7 +7686,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,7 +7720,7 @@
         <v>25</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,16 +7728,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,16 +7745,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,16 +7762,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7596,16 +7779,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,16 +7796,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,16 +7813,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C91" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>456</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,7 +7839,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,7 +7856,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7690,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,13 +7884,13 @@
         <v>6</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>456</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,7 +7907,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +7924,7 @@
         <v>25</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,16 +7932,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,16 +7949,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,16 +7966,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7800,16 +7983,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,10 +8000,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>25</v>
@@ -7832,81 +8015,113 @@
         <v>5</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>489</v>
+        <v>294</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="27"/>
+        <v>303</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>489</v>
+        <v>294</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="27"/>
-    </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="27"/>
-    </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="27"/>
-    </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="27"/>
-    </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="27"/>
+        <v>294</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7965,10 +8180,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7985,13 +8200,13 @@
         <v>25</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8008,13 +8223,13 @@
         <v>25</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8028,16 +8243,16 @@
         <v>92</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8054,13 +8269,13 @@
         <v>38</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8077,13 +8292,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8100,13 +8315,13 @@
         <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8120,16 +8335,16 @@
         <v>102</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8146,13 +8361,13 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8166,16 +8381,16 @@
         <v>106</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8258,16 +8473,16 @@
         <v>128</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8284,13 +8499,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8304,16 +8519,16 @@
         <v>132</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8330,13 +8545,13 @@
         <v>38</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8353,13 +8568,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8376,13 +8591,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8396,16 +8611,16 @@
         <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8419,16 +8634,16 @@
         <v>158</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8445,13 +8660,13 @@
         <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8468,13 +8683,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8491,13 +8706,13 @@
         <v>25</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8514,13 +8729,13 @@
         <v>25</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8531,19 +8746,19 @@
         <v>168</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8557,16 +8772,16 @@
         <v>169</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8580,7 +8795,7 @@
         <v>174</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>175</v>
@@ -8600,19 +8815,19 @@
         <v>168</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8629,13 +8844,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8646,19 +8861,19 @@
         <v>168</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8672,7 +8887,7 @@
         <v>268</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>269</v>
@@ -8698,13 +8913,13 @@
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8721,13 +8936,13 @@
         <v>216</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8744,13 +8959,13 @@
         <v>38</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8767,13 +8982,13 @@
         <v>38</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8790,13 +9005,13 @@
         <v>38</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8810,16 +9025,16 @@
         <v>282</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8833,16 +9048,16 @@
         <v>284</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8859,13 +9074,13 @@
         <v>25</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8882,13 +9097,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8905,13 +9120,13 @@
         <v>38</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8928,13 +9143,13 @@
         <v>25</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8968,19 +9183,19 @@
         <v>73</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8997,13 +9212,13 @@
         <v>25</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9020,13 +9235,13 @@
         <v>25</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9037,19 +9252,19 @@
         <v>73</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9066,13 +9281,13 @@
         <v>25</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9089,13 +9304,13 @@
         <v>145</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9135,13 +9350,13 @@
         <v>25</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9152,19 +9367,19 @@
         <v>140</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9198,19 +9413,19 @@
         <v>140</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9270,7 +9485,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>247</v>
@@ -9316,7 +9531,7 @@
         <v>250</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>251</v>
@@ -9362,16 +9577,16 @@
         <v>213</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9411,13 +9626,13 @@
         <v>38</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9434,13 +9649,13 @@
         <v>38</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9457,13 +9672,13 @@
         <v>38</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9503,13 +9718,13 @@
         <v>38</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9526,13 +9741,13 @@
         <v>38</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9543,19 +9758,19 @@
         <v>254</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,13 +9787,13 @@
         <v>38</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,16 +9807,16 @@
         <v>263</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,13 +9833,13 @@
         <v>25</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,22 +9847,22 @@
         <v>211</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9655,22 +9870,22 @@
         <v>211</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D75" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9678,22 +9893,22 @@
         <v>211</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D76" s="30" t="s">
         <v>216</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,22 +9916,22 @@
         <v>211</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D77" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9724,22 +9939,22 @@
         <v>211</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,22 +9962,22 @@
         <v>211</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9779,13 +9994,13 @@
         <v>25</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9799,7 +10014,7 @@
         <v>27</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>29</v>
@@ -9822,7 +10037,7 @@
         <v>30</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>32</v>
@@ -9848,13 +10063,13 @@
         <v>25</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9868,7 +10083,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>36</v>
@@ -9894,13 +10109,13 @@
         <v>38</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,7 +10129,7 @@
         <v>41</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>42</v>
@@ -9960,16 +10175,16 @@
         <v>45</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9986,13 +10201,13 @@
         <v>25</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10009,13 +10224,13 @@
         <v>38</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,13 +10247,13 @@
         <v>38</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,19 +10264,19 @@
         <v>226</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,13 +10293,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,13 +10316,13 @@
         <v>38</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10124,13 +10339,13 @@
         <v>38</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,7 +10359,7 @@
         <v>235</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>237</v>
@@ -10167,16 +10382,16 @@
         <v>238</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10187,19 +10402,19 @@
         <v>55</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10213,16 +10428,16 @@
         <v>58</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,16 +10451,16 @@
         <v>61</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10262,13 +10477,13 @@
         <v>25</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,16 +10497,16 @@
         <v>66</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10305,7 +10520,7 @@
         <v>69</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E103" s="15" t="s">
         <v>71</v>
@@ -10331,13 +10546,13 @@
         <v>25</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10351,7 +10566,7 @@
         <v>186</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E105" s="15" t="s">
         <v>187</v>
@@ -10377,13 +10592,13 @@
         <v>25</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +10612,7 @@
         <v>190</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>192</v>
@@ -10420,7 +10635,7 @@
         <v>193</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E108" s="15" t="s">
         <v>194</v>
@@ -10443,16 +10658,16 @@
         <v>195</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10492,13 +10707,13 @@
         <v>25</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10512,7 +10727,7 @@
         <v>204</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>205</v>
@@ -10535,16 +10750,16 @@
         <v>121</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10558,7 +10773,7 @@
         <v>206</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>207</v>
@@ -10581,7 +10796,7 @@
         <v>208</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>210</v>
@@ -10651,13 +10866,13 @@
         <v>240</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10666,13 +10881,13 @@
         <v>240</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10701,16 +10916,16 @@
         <v>72</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10718,16 +10933,16 @@
         <v>72</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10735,16 +10950,16 @@
         <v>72</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10752,16 +10967,16 @@
         <v>72</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10769,16 +10984,16 @@
         <v>72</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10786,68 +11001,68 @@
         <v>72</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10879,13 +11094,13 @@
         <v>254</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10902,7 +11117,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10919,7 +11134,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10930,13 +11145,13 @@
         <v>254</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10947,13 +11162,13 @@
         <v>254</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10970,7 +11185,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11188,16 +11403,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11205,16 +11420,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11250,16 +11465,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11267,16 +11482,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>141</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11284,7 +11499,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>200</v>
@@ -11293,7 +11508,7 @@
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11301,16 +11516,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>204</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11318,16 +11533,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11335,13 +11550,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>210</v>
@@ -11358,13 +11573,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11374,23 +11589,23 @@
         <v>158</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11415,13 +11630,13 @@
         <v>168</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11435,10 +11650,10 @@
         <v>174</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11449,13 +11664,13 @@
         <v>168</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11466,13 +11681,13 @@
         <v>168</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11489,7 +11704,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11500,13 +11715,13 @@
         <v>168</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11603,13 +11818,13 @@
         <v>73</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11620,13 +11835,13 @@
         <v>73</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11643,7 +11858,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11654,13 +11869,13 @@
         <v>73</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11677,7 +11892,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11688,13 +11903,13 @@
         <v>73</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11711,7 +11926,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11722,13 +11937,13 @@
         <v>140</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11745,7 +11960,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11756,13 +11971,13 @@
         <v>140</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11773,13 +11988,13 @@
         <v>140</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11790,13 +12005,13 @@
         <v>140</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11807,13 +12022,13 @@
         <v>240</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11824,13 +12039,13 @@
         <v>240</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11841,13 +12056,13 @@
         <v>240</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11858,13 +12073,13 @@
         <v>240</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11881,7 +12096,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11892,13 +12107,13 @@
         <v>240</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11909,13 +12124,13 @@
         <v>212</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11926,13 +12141,13 @@
         <v>212</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11943,13 +12158,13 @@
         <v>212</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11960,13 +12175,13 @@
         <v>212</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11977,13 +12192,13 @@
         <v>212</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11994,13 +12209,13 @@
         <v>212</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12011,13 +12226,13 @@
         <v>254</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12028,13 +12243,13 @@
         <v>254</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12045,13 +12260,13 @@
         <v>254</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12062,13 +12277,13 @@
         <v>254</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12079,13 +12294,13 @@
         <v>254</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12096,13 +12311,13 @@
         <v>254</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12110,16 +12325,16 @@
         <v>211</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12127,16 +12342,16 @@
         <v>211</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12144,16 +12359,16 @@
         <v>211</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12161,16 +12376,16 @@
         <v>211</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12178,16 +12393,16 @@
         <v>211</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12195,16 +12410,16 @@
         <v>211</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12221,7 +12436,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12238,7 +12453,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12249,13 +12464,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12266,13 +12481,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12283,13 +12498,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12300,13 +12515,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12317,13 +12532,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12340,7 +12555,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12357,7 +12572,7 @@
         <v>145</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12368,13 +12583,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12385,13 +12600,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12402,13 +12617,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12419,13 +12634,13 @@
         <v>226</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12436,13 +12651,13 @@
         <v>226</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12453,13 +12668,13 @@
         <v>226</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12470,13 +12685,13 @@
         <v>226</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12487,13 +12702,13 @@
         <v>226</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12504,13 +12719,13 @@
         <v>226</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12518,16 +12733,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12535,16 +12750,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12552,16 +12767,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12569,16 +12784,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12586,16 +12801,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12603,16 +12818,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12623,13 +12838,13 @@
         <v>182</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12646,7 +12861,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12657,13 +12872,13 @@
         <v>182</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12674,13 +12889,13 @@
         <v>182</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12691,13 +12906,13 @@
         <v>182</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12708,13 +12923,13 @@
         <v>182</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12722,16 +12937,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12739,16 +12954,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12756,16 +12971,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12773,16 +12988,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12790,16 +13005,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12807,16 +13022,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12919,13 +13134,13 @@
         <v>73</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12939,10 +13154,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12956,10 +13171,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12973,10 +13188,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12990,10 +13205,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13004,13 +13219,13 @@
         <v>73</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13021,13 +13236,13 @@
         <v>140</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13038,13 +13253,13 @@
         <v>140</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13055,13 +13270,13 @@
         <v>140</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>780</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13072,13 +13287,13 @@
         <v>140</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>782</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13089,13 +13304,13 @@
         <v>140</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13106,13 +13321,13 @@
         <v>140</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13126,10 +13341,10 @@
         <v>241</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13140,13 +13355,13 @@
         <v>240</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13157,13 +13372,13 @@
         <v>240</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13174,13 +13389,13 @@
         <v>240</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13194,10 +13409,10 @@
         <v>252</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13208,13 +13423,13 @@
         <v>240</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13225,13 +13440,13 @@
         <v>212</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13242,13 +13457,13 @@
         <v>212</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13259,13 +13474,13 @@
         <v>212</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13276,13 +13491,13 @@
         <v>212</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13293,13 +13508,13 @@
         <v>212</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13310,13 +13525,13 @@
         <v>212</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13327,13 +13542,13 @@
         <v>254</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13344,13 +13559,13 @@
         <v>254</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13361,13 +13576,13 @@
         <v>254</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13378,13 +13593,13 @@
         <v>254</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13395,13 +13610,13 @@
         <v>254</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13412,13 +13627,13 @@
         <v>254</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13426,16 +13641,16 @@
         <v>211</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13443,16 +13658,16 @@
         <v>211</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13460,16 +13675,16 @@
         <v>211</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13477,16 +13692,16 @@
         <v>211</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13494,16 +13709,16 @@
         <v>211</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13511,16 +13726,16 @@
         <v>211</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13531,13 +13746,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13548,13 +13763,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13565,13 +13780,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13582,13 +13797,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13599,13 +13814,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13616,13 +13831,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13633,13 +13848,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13650,13 +13865,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13667,13 +13882,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13684,13 +13899,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13701,13 +13916,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13718,13 +13933,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13735,13 +13950,13 @@
         <v>226</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13752,13 +13967,13 @@
         <v>226</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13769,13 +13984,13 @@
         <v>226</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13786,13 +14001,13 @@
         <v>226</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13803,13 +14018,13 @@
         <v>226</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13820,13 +14035,13 @@
         <v>226</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13834,16 +14049,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13851,16 +14066,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13868,16 +14083,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13885,16 +14100,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13902,16 +14117,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13919,16 +14134,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13939,13 +14154,13 @@
         <v>182</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13956,13 +14171,13 @@
         <v>182</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13973,13 +14188,13 @@
         <v>182</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13990,13 +14205,13 @@
         <v>182</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14007,13 +14222,13 @@
         <v>182</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14024,13 +14239,13 @@
         <v>182</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14038,16 +14253,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14055,16 +14270,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14072,16 +14287,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14089,16 +14304,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14106,16 +14321,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14123,16 +14338,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -417,7 +417,7 @@
     <t xml:space="preserve">Athame</t>
   </si>
   <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. You recover a Mana Point whenever you use a Talisman or this weapon to incapacitate a target. </t>
+    <t xml:space="preserve">A ritual knife used in sacrificial practices. You recover a Mana Point whenever you use a Talisman or this weapon to incapacitate a target in melee range.</t>
   </si>
   <si>
     <t xml:space="preserve">Blight</t>
@@ -573,7 +573,7 @@
     <t xml:space="preserve">Warded Greatcoat</t>
   </si>
   <si>
-    <t xml:space="preserve">A leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
+    <t xml:space="preserve">A leather jacket that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
   </si>
   <si>
     <t xml:space="preserve">Knight</t>
@@ -672,7 +672,7 @@
     <t xml:space="preserve">Holy Symbol</t>
   </si>
   <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective at chastising magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. You have Advantage when rolling Magic against other mages or spirits.</t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Abjuration</t>
@@ -3534,8 +3534,8 @@
   </sheetPr>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E92" activeCellId="0" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5003,7 +5003,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>211</v>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="911">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">Manifold Venom</t>
   </si>
   <si>
-    <t xml:space="preserve">A collection of dangerous poisons that can be applied to weapons or slipped into drinks. Can be used to sap strength, cause blindness, or render targets unconscious. Requires an action if applied to a weapon in combat.</t>
+    <t xml:space="preserve">A collection of dangerous poisons that can be applied to weapons or slipped into drinks. Can be used to sap strength, cause blindness, or render targets unconscious. Requires an action if applied to a weapon in combat. You are immune to poisons.</t>
   </si>
   <si>
     <t xml:space="preserve">Nerve Thorns</t>
@@ -591,1261 +591,1267 @@
     <t xml:space="preserve">Holy Sword</t>
   </si>
   <si>
+    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to destroy magic and repel evil. You have Advantage when destroying magic, inspiring others, or intimidating the undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive the unconscious, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscribed Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shield warded against hostile magic. Spells rebound from its surface. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending against magical attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smiting Mace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to knock enemies back or into the air with significant force. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taunting Scourge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted metal chain with barbs that bind and restrict enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaching Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short hammer that sends shockwaves through objects, breaking them apart. Using this weapon bypasses the effects of armor and damages enemy equipment. You have Advantage when destroying objects and obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons and diseases. You have Advantage against hazards like sweltering heat and bitter cold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocket Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this kit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocklance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when attacking targets wearing metal armor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a full tower shield. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending others from harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sharp shortsword that seeks out targets. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. You have Advantage when rolling Magic against other mages or spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherd’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer’s Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Ranged, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper Bowstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concussive Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grease Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron-Sighted Rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphos Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchcoat Boomstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totemic Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Gauntlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break through obstacles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abjuring Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Censure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Wildlife are repelled by the smell, making it useful for setting up camp in dangerous areas. You have Advantage when defending against magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off spirits. You are immune to curses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolling Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. If destroyed, you can call it back into the world with a bird feather. You have Advantage when noticing danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flying Broom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slowing Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon reduces a target’s ability to react quickly, think clearly, and pursue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that influences positive emotions. Can be used to calm others, improve moods, and dimish hostilities. When you fail to influence someone with Presence, they do not become hostile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow Perfume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bottle of alchemic perfume that fogs minds. Can be used to erase recent memories, lower someone’s guard, and become less noticable. You have Advantage when using Presence to hypnotize or charm others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception, Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility, Cunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength, Bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with weapons and armor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and three +1 skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisons, Throwing Needles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusions, Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of a courier guild with expertise in stagecraft and illusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Swords, Duelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mist Rod, Bombs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summoning, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marauder, Swashbuckling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spearman, Transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A knight that mimics the power of dragons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildlife, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructs, Imbued Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curses, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An honorable knight with a holy sword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An infantryman trained in construction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasion, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traditional warrior, known for their affinity with the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns, Grenades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementalist, War Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elemental magician renowned for their power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battlemage, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mage hunter and monster slayer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasion, Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of a courier guild with a flying broom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat, Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonant Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallwalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cut Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intricate Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingering Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Metal Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Spatiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiate light and heat around yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draining Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcane Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladiator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallurgist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runehammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrolic Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marksman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouncing Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, High Damage, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A thick leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiplash Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyglass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak with and undestand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike multiple enemies without harming allies. You have Advantage when petitioning spirits with Presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances and to disperse illusions. You have Advantage on Presence rolls to sense magical phenomenon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff that leverages alchemy to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hallucinogenic dust. Can be used to induce confusion, render someone highly suggestable, or inflict Mental damage. You have Advantage when lying to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous venoms and poisons. Can be applied to the user’s weapons to sap strength, cause blindness, or put targets into shock. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of daggers meant for close combat. Using this weapon gives you Advantage on rolls to dodge until the start of your next turn. You have Advantage on rolls to move swifty, such as when retreating or pursuing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated liquid that negates magic. Can be used to counter spells, damage magical objects, and repel monsters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adamantine Gauntets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy gauntlets made of a nearly indestructable material. Can be used to grab blades, poisonous spines, molten metal, and other hazards without harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Defense, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regulation-length sword for resolving legal disputes. Using this weapon gives you Advantage on rolls to defend until the start of your next turn, and adds +1 to the roll result of your attacks. You have Advantage when provoking others into a duel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted iron sword that glows with heat. Using this weapon ignites flammable surfaces on contact. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of boots that provide steady footing in all manner of conditions. You are immune to environmental hazards that impede your movement, such as grease slicks or ice, and attempts to knock you over. Your feet are protected from spikes, fire, and similar sources of harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most enemies and objects. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. Can be used as bait.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to interfere with magic. You have Advantage when inspiring or rallying others. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitaler Salts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive the unconscious, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscribed Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shield warded against hostile magic. Spells rebound from its surface. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending against magical attacks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smiting Mace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to knock enemies back or into the air with significant force. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taunting Scourge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted metal chain with barbs that bind and restrict enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaching Hammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short hammer that sends shockwaves through objects, breaking them apart. Using this weapon bypasses the effects of armor and damages enemy equipment. You have Advantage when destroying objects and obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogre Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons and diseases. You have Advantage against hazards like sweltering heat and bitter cold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocket Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this kit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocklance</t>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted metal chain with barbs that bind and resticts enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this substance. </t>
   </si>
   <si>
     <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanguard Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a full tower shield. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending others from harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wicked Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sharp shortsword that seeks out targets. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. You have Advantage when rolling Magic against other mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shepherd’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer’s Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whisper Bowstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concussive Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grease Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron-Sighted Rifle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphos Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchcoat Boomstick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totemic Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Gauntlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Terra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break through obstacles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Templar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abjuring Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Censure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Wildlife are repelled by the smell, making it useful for setting up camp in dangerous areas. You have Advantage when defending against magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off spirits. You are immune to curses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolling Bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Witch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. If destroyed, you can call it back into the world with a bird feather. You have Advantage when noticing danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying Broom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slowing Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon reduces a target’s ability to react quickly, think clearly, and pursue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that influences positive emotions. Can be used to calm others, improve moods, and dimish hostilities. When you fail to influence someone with Presence, they do not become hostile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willow Perfume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bottle of alchemic perfume that fogs minds. Can be used to erase recent memories, lower someone’s guard, and become less noticable. You have Advantage when using Presence to hypnotize or charm others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception, Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agility, Cunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength, Bravery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with weapons and armor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and three +1 skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisons, Throwing Needles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illusions, Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member of a courier guild with expertise in stagecraft and illusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Swords, Duelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mist Rod, Bombs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summoning, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marauder, Swashbuckling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spearman, Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A knight that mimics the power of dragons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructs, Imbued Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curses, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An honorable knight with a holy sword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An infantryman trained in construction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A traditional warrior, known for their affinity with the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guns, Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementalist, War Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elemental magician renowned for their power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battlemage, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mage hunter and monster slayer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion, Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member of a courier guild with a flying broom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat, Motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonant Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabotage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallwalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cut Above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatal Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intricate Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingering Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonic Rend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Metal Jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Spatiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Temporality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Hop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equilibrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiate light and heat around yourself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draining Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane Archer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gladiator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallurgist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Decomposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runehammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrolic Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marksman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorcerer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouncing Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thick leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiplash Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skyglass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and undestand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike multiple enemies without harming allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances and to disperse illusions. You have Advantage on Presence rolls to sense magical phenomenon. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemy to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hallucinogenic dust. Can be used to induce confusion, render someone highly suggestable, or inflict Mental damage. You have Advantage when lying to others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous venoms and poisons. Can be applied to the user’s weapons to sap strength, cause blindness, or put targets into shock. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of daggers meant for close combat. Using this weapon gives you Advantage on rolls to dodge until the start of your next turn. You have Advantage on rolls to move swifty, such as when retreating or pursuing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated liquid that negates magic. Can be used to counter spells, damage magical objects, and repel monsters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adamantine Gauntets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy gauntlets made of a nearly indestructable material. Can be used to grab blades, poisonous spines, molten metal, and other hazards without harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A regulation-length sword for resolving legal disputes. Using this weapon gives you Advantage on rolls to defend until the start of your next turn, and adds +1 to the roll result of your attacks. You have Advantage when provoking others into a duel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted iron sword that glows with heat. Using this weapon ignites flammable surfaces on contact. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of boots that provide steady footing in all manner of conditions. You are immune to environmental hazards that impede your movement, such as grease slicks or ice, and attempts to knock you over. Your feet are protected from spikes, fire, and similar sources of harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most enemies and objects. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. Can be used as bait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted metal chain with barbs that bind and resticts enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this substance. </t>
   </si>
   <si>
     <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
@@ -3534,8 +3540,8 @@
   </sheetPr>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E92" activeCellId="0" sqref="E92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10123,13 +10129,13 @@
         <v>476</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>184</v>
+        <v>600</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>184</v>
+        <v>600</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>184</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10146,13 +10152,13 @@
         <v>25</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10215,13 +10221,13 @@
         <v>476</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,13 +10267,13 @@
         <v>25</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,13 +10290,13 @@
         <v>476</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10307,13 +10313,13 @@
         <v>520</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10350,7 +10356,7 @@
         <v>205</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>207</v>
@@ -10420,13 +10426,13 @@
         <v>237</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10435,13 +10441,13 @@
         <v>237</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10470,16 +10476,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10487,16 +10493,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10504,16 +10510,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10521,16 +10527,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10538,16 +10544,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10555,55 +10561,55 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10616,7 +10622,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10654,7 +10660,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10716,13 +10722,13 @@
         <v>251</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10957,16 +10963,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10974,16 +10980,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11019,16 +11025,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11036,7 +11042,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>138</v>
@@ -11045,7 +11051,7 @@
         <v>476</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11053,7 +11059,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>197</v>
@@ -11062,7 +11068,7 @@
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11070,7 +11076,7 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>201</v>
@@ -11079,7 +11085,7 @@
         <v>476</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11087,7 +11093,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>118</v>
@@ -11096,7 +11102,7 @@
         <v>476</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11104,13 +11110,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>205</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>207</v>
@@ -11127,13 +11133,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11146,20 +11152,20 @@
         <v>476</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11184,13 +11190,13 @@
         <v>165</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11204,10 +11210,10 @@
         <v>171</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11218,13 +11224,13 @@
         <v>165</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11241,7 +11247,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11258,7 +11264,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11269,13 +11275,13 @@
         <v>165</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11372,13 +11378,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11389,13 +11395,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11412,7 +11418,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11423,13 +11429,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11446,7 +11452,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11457,13 +11463,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11480,7 +11486,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11491,13 +11497,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11514,7 +11520,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11525,13 +11531,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11542,13 +11548,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11559,13 +11565,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11576,13 +11582,13 @@
         <v>237</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11593,13 +11599,13 @@
         <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11610,13 +11616,13 @@
         <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11627,13 +11633,13 @@
         <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11650,7 +11656,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11661,13 +11667,13 @@
         <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11678,13 +11684,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>444</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11695,13 +11701,13 @@
         <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11712,13 +11718,13 @@
         <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11729,13 +11735,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11746,13 +11752,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11763,13 +11769,13 @@
         <v>209</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11780,13 +11786,13 @@
         <v>251</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11797,13 +11803,13 @@
         <v>251</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11814,13 +11820,13 @@
         <v>251</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11831,13 +11837,13 @@
         <v>251</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11848,13 +11854,13 @@
         <v>251</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11865,13 +11871,13 @@
         <v>251</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11882,13 +11888,13 @@
         <v>304</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>388</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11899,13 +11905,13 @@
         <v>304</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11916,13 +11922,13 @@
         <v>304</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>444</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11933,13 +11939,13 @@
         <v>304</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11950,13 +11956,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11967,13 +11973,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11990,7 +11996,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12007,7 +12013,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12018,13 +12024,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12035,13 +12041,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12052,13 +12058,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12069,13 +12075,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12086,13 +12092,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12109,7 +12115,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12126,7 +12132,7 @@
         <v>142</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12137,13 +12143,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12154,13 +12160,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12171,13 +12177,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>388</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12188,13 +12194,13 @@
         <v>223</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12211,7 +12217,7 @@
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12222,13 +12228,13 @@
         <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12239,13 +12245,13 @@
         <v>223</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>388</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12256,13 +12262,13 @@
         <v>223</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12273,13 +12279,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12287,16 +12293,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12304,16 +12310,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12321,16 +12327,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12338,16 +12344,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12355,16 +12361,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12372,7 +12378,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>68</v>
@@ -12381,7 +12387,7 @@
         <v>378</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12392,13 +12398,13 @@
         <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12415,7 +12421,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12426,13 +12432,13 @@
         <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12443,13 +12449,13 @@
         <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12460,13 +12466,13 @@
         <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12477,13 +12483,13 @@
         <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12491,16 +12497,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12508,16 +12514,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12525,16 +12531,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12542,16 +12548,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12559,16 +12565,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12576,16 +12582,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12688,13 +12694,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12708,10 +12714,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12725,10 +12731,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12742,10 +12748,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12759,10 +12765,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12773,13 +12779,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12790,13 +12796,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12807,13 +12813,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12824,13 +12830,13 @@
         <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12841,13 +12847,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12858,13 +12864,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12875,13 +12881,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>802</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12895,10 +12901,10 @@
         <v>238</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12909,13 +12915,13 @@
         <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12926,13 +12932,13 @@
         <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12943,13 +12949,13 @@
         <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12963,10 +12969,10 @@
         <v>249</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12977,13 +12983,13 @@
         <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12994,13 +13000,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13011,13 +13017,13 @@
         <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13028,13 +13034,13 @@
         <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13045,13 +13051,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13062,13 +13068,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13079,13 +13085,13 @@
         <v>209</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13096,13 +13102,13 @@
         <v>251</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13113,13 +13119,13 @@
         <v>251</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13130,13 +13136,13 @@
         <v>251</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13147,13 +13153,13 @@
         <v>251</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13164,13 +13170,13 @@
         <v>251</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13181,13 +13187,13 @@
         <v>251</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13198,13 +13204,13 @@
         <v>304</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13215,13 +13221,13 @@
         <v>304</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13232,13 +13238,13 @@
         <v>304</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13249,13 +13255,13 @@
         <v>304</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13266,13 +13272,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13283,13 +13289,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13300,13 +13306,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13317,13 +13323,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13334,13 +13340,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13351,13 +13357,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13368,13 +13374,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13385,13 +13391,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13402,13 +13408,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13419,13 +13425,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13436,13 +13442,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13453,13 +13459,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13470,13 +13476,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13487,13 +13493,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13504,13 +13510,13 @@
         <v>223</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13521,13 +13527,13 @@
         <v>223</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13538,13 +13544,13 @@
         <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13555,13 +13561,13 @@
         <v>223</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13572,13 +13578,13 @@
         <v>223</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13589,13 +13595,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13603,16 +13609,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13620,16 +13626,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13637,16 +13643,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13654,16 +13660,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13671,16 +13677,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13688,16 +13694,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13708,13 +13714,13 @@
         <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13725,13 +13731,13 @@
         <v>179</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13742,13 +13748,13 @@
         <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13759,13 +13765,13 @@
         <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13776,13 +13782,13 @@
         <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13793,13 +13799,13 @@
         <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13807,16 +13813,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13824,16 +13830,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13841,16 +13847,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13858,16 +13864,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13875,16 +13881,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13892,16 +13898,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="918">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -273,361 +273,1594 @@
     <t xml:space="preserve">A mechanical tool with an adjustable nozzle that sprays chemicals. When used as a weapon, produces a painful acid wash that causes Physical damage. Can be used with other Alchemy kits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vacuum Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, and propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Glue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unprocessed liquid metal that hardens after exposure to the air. Can be used as an adhesive, as a construction material, and as means of restricting enemy movement. You can expend a Potion to create a spike of Vorpal metal, dealing two boxes of Physical damage and piercing through metal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winterbloom Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. Can be used to freeze large volumes of water, create clouds of fog, and plummet the temperature of objects. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brimstone Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. Can be used to set explosive traps, turn fire into waterproof hellfire, and bribe unsavory merchants. You can expend a Potion to create a hellfire grenade that deals two boxes of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fey Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drug that changes the properties of blood. Can be used to stop blood loss, create wounds that bleed incessantly, and treat inflammation. When you produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. Successful attacks against magical creatures fog their minds and deal an additional box of Mental damage. You have Advantage when influencing magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. Can be used to summon imps, consult devils for knowledge, and fling hellfire. You have Advantage when using Knowledge to recall forbidden information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon will-o-wisps, bewitch the senses, and change your appearance. You have Advantage when using Presence to confuse and bewilder others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Jinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth desert winds, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corsair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloody Cutlass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sword with a nasty red hue that drinks blood with every strike. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances. You have Advantage when making quick escapes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marauder Flintlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky Fingers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of gloves covered in an odd adhesive. Allows the user to climb any surface with ease and snatch objects with a light touch. You have Advantage when stealing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sea. Can be used to shift the flow of currents, breathe underwater, and speak with creatures of the sea. You have Advantage when swimming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sky. Can be used to whip up strong winds, find your way when lost, and speak with creatures of the sky. You have Advantage when breaking your falls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A draught that lets the user breathe flames like a dragon. Can be used to spit flame at an enemy, blow a cloud of fire, and cover yourself in fire. You are immune to fire while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A draught that changes the user’s eyes to see like a dragon. Can be used to see heat, see in the dark, and see across great distances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A draught that causes the user to grow scales like a dragon. You have Advantage when defending against piercing attacks, like arrows or fangs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderclap Javelins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target. You have Advantage when using this weapon against flying targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear tipped with vorpal metal, capable of piercing through a dragon’s scales. A length of chain connects the spear to its wielder. Successful attacks deal an additional box of damage. You have Advantage when attacking heavily armored targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Boots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of boots charmed to augment the wearer’s jumping abilities. Can be used to leap onto buildings, fall without harm, and kick doors off their hinges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritual knife used in sacrificial practices. You recover a Mana Point whenever you use a Talisman or this weapon to incapacitate a target in melee range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water. You are immune to poisons and diseases while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primal Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence or attack wildlife. Natural wildlife will not attack you unless provoked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Beasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals. You can speak with and understand wildlife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Storms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning from the sky, and drive howling winds. You have Advantage when using Presence to inspire terror in people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants. You have Advantage when detecting danger in the immediate future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant that takes the form of a metal staff. It can shrink to fit in a pocket or grow to ten feet in length. You can expend a Potion to reshape the staff into another weapon, tool, or object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancing Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow. The servant resides within your shadow but can move independently and interact with the physical world. It can retrieve lightweight objects and store a small number within itself. You can expend a Potion to have the shadow deflect an incoming attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featherweave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted cloth, capable of resisting gravity to a limited degree. You glide gently to the ground while wearing this kit. When folded into a bag, you can carry heavy objects with ease. You can expend a Potion to turn the Featherweave into a flying carpet, able to carry multiple people for a short time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will. You can command the servant to slash at enemies nearby. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting independently and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikigami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have servants made from enchanted paper, capable of flying, spying, and carrying messages.  Equipping this kit provides half a dozen shikigami. You can expend a Potion to create an additional six servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fell Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ash Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or reanimated. You have Advantage when attacking undead with this weapon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mournblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sword with a demon trapped inside. Using this weapon restores a Fortune box whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to attack demons and spirits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy, and cause seizures. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Siphoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to steal energy. Can be used to drain lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vim Drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distant ancestor to the modern alchemist potion. When consumed, the user expends a Mental box in exchange for recovering a Physical box. Can be used by others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wither Toxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bitter venom that causes intense pain. Can be used to inflict Mental damage, cripple the wills of enemies, or cloud the mind. You have Advantage when interrogating someone for information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunslinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, High Damage, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hefty iron sidearm that packs a punch. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of enchanted bullets. Includes silver bullets that tear through magic, whiplash bullets that create gusts of wind to disperse smokescreens, and spark bullets that manifest as bolts of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw Pistol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A handgun built for quick access. If you strike before an enemy, the attack is treated as a sneak attack. You have Advantage when determining who goes first, such as rolling turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trick Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of bullets with unusual effects. Includes non-lethal rubber bullets, two-shot bullets that can change trajectory in midflight, and paint bullets that stain skin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of specialized bullets for warfare. Includes steel-tipped bullets for piercing through cover, breaching rounds for opening doors, and flare rounds for signalling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warded Greatcoat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A leather jacket that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annointing Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritual oil that knights don before battle. Can be used to attract monsters, grant immunity to curses, and create holy flames that eat away at magic without harming the body. You have Advantage when defending against magic while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to destroy magic and repel evil. You have Advantage when destroying magic, inspiring others, or intimidating creatures aligned with dark magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive allies, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetic shield that attracts arrows, bullets, and swords away from allies. When a nearby ally is attacked, you can choose to take damage in their place and gain a Fortune Point for doing so. Damage taken in this way cannot be reduced or avoided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smiting Mace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to knock enemies back or into the air with significant force. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taunting Scourge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted metal chain with barbs that bind and restrict enemies. Using this weapon grapples targets in addition to any damage dealt, keeping them from moving outside of melee range. You have Advantage when provoking others into attacking you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaker Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A combination handaxe and hammer made of adamantine. Can be used to collect lumber, destroy walls, and break objects apart. You have Advantage when destroying objects with this kit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flex Pilum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of javelins with points on both ends. They become much heavier when a point impacts a target. Using this weapon drags enemies to the ground, knocking them over and restricting their movement. Can be used to create spike traps, small palisades, and similar fortifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocket Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this kit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocklance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when attacking targets wearing metal armor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a large shield with a flick of the wrist. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when protecting others from harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sharp shortsword that seeks out targets. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. You have Advantage when rolling Magic against other mages or spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherd’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer’s Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Ranged, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper Bowstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concussive Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grease Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron-Sighted Rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphos Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchcoat Boomstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totemic Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Gauntlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break through obstacles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abjuring Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with searing heat. Successful attacks against deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Censure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Wildlife are repelled by the smell, making it useful for setting up camp in dangerous areas. You have Advantage when defending against magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Purification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off spirits. You are immune to curses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolling Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. If destroyed, you can call it back into the world with a bird feather. You have Advantage when noticing danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flying Broom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slowing Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon reduces a target’s ability to react quickly, think clearly, and pursue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that influences positive emotions. Can be used to calm others, improve moods, and dimish hostilities. When you fail to influence someone with Presence, they do not become hostile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow Perfume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bottle of alchemic perfume that fogs minds. Can be used to erase recent memories, lower someone’s guard, and become less noticable. You have Advantage when using Presence to hypnotize or charm others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception, Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility, Cunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength, Bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with weapons and armor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and three +1 skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisons, Throwing Needles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusions, Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of a courier guild with expertise in stagecraft and illusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Swords, Duelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mist Rod, Bombs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summoning, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marauder, Swashbuckling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spearman, Transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A knight that mimics the power of dragons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildlife, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructs, Imbued Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curses, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An honorable knight with a holy sword.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An infantryman trained in construction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasion, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer, Primal Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traditional warrior, known for their affinity with the natural world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns, Grenades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementalist, War Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An elemental magician renowned for their power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battlemage, Magic Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrior, Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mage hunter and monster slayer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasion, Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A member of a courier guild with a flying broom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat, Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonant Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallwalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cut Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intricate Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingering Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Metal Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Spatiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiate light and heat around yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draining Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcane Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladiator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallurgist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runehammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrolic Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marksman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouncing Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, High Damage, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A thick leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiplash Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vaccuum Space</t>
   </si>
   <si>
-    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, and propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Glue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An unprocessed liquid metal that hardens after exposure to the air. Can be used as an adhesive, as a construction material, and as means of restricting enemy movement. You can expend a Potion to create a spike of Vorpal metal, dealing two boxes of Physical damage and piercing through metal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winterbloom Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. Can be used to freeze large volumes of water, create clouds of fog, and plummet the temperature of objects. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brimstone Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. Can be used to set explosive traps, turn fire into waterproof hellfire, and bribe unsavory merchants. You can expend a Potion to create a hellfire grenade that deals two boxes of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fey Venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drug that changes the properties of blood. Can be used to stop blood loss, create wounds that bleed incessantly, and treat inflammation. When you produce a Potion, it heals an additional Physical box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. Successful attacks against magical creatures fog their minds and deal an additional box of Mental damage. You have Advantage when influencing magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Demons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. Can be used to summon imps, consult devils for knowledge, and fling hellfire. You have Advantage when using Knowledge to recall forbidden information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon will-o-wisps, bewitch the senses, and change your appearance. You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Jinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth desert winds, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corsair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloody Cutlass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a nasty red hue that drinks blood with every strike. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Hook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances. You have Advantage when making quick escapes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marauder Flintlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sticky Fingers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of gloves covered in an odd adhesive. Allows the user to climb any surface with ease and snatch objects with a light touch. You have Advantage when stealing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sea. Can be used to shift the flow of currents, breathe underwater, and speak with creatures of the sea. You have Advantage when swimming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sky. Can be used to whip up strong winds, find your way when lost, and speak with creatures of the sky. You have Advantage when breaking your falls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A draught that lets the user breathe flames like a dragon. Can be used to spit flame at an enemy, blow a cloud of fire, and cover yourself in fire. You are immune to fire while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A draught that changes the user’s eyes to see like a dragon. Can be used to see heat, see in the dark, and see across great distances. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Scales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A draught that causes the user to grow scales like a dragon. You have Advantage when defending against piercing attacks, like arrows or fangs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderclap Javelins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target. You have Advantage when using this weapon against flying targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear tipped with vorpal metal, capable of piercing through a dragon’s scales. A length of chain connects the spear to its wielder. Successful attacks deal an additional box of damage. You have Advantage when attacking heavily armored targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winged Boots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of boots charmed to augment the wearer’s jumping abilities. Can be used to leap onto buildings, fall without harm, and kick doors off their hinges. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. You recover a Mana Point whenever you use a Talisman or this weapon to incapacitate a target in melee range.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water. You are immune to poisons and diseases while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primal Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence or attack wildlife. Natural wildlife will not attack you unless provoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Beasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals. You can speak with and understand wildlife.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Storms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning from the sky, and drive howling winds. You have Advantage when using Presence to inspire terror in people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants. You have Advantage when detecting danger in the immediate future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchanter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compliant Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant that takes the form of a metal staff. It can shrink to fit in a pocket or grow to ten feet in length. You can expend a Potion to reshape the staff into another weapon, tool, or object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dancing Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow. The servant resides within your shadow but can move independently and interact with the physical world. It can retrieve lightweight objects and store a small number within itself. You can expend a Potion to have the shadow deflect an incoming attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Featherweave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from enchanted cloth, capable of resisting gravity to a limited degree. You glide gently to the ground while wearing this kit. When folded into a bag, you can carry heavy objects with ease. You can expend a Potion to turn the Featherweave into a flying carpet, able to carry multiple people for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will. You can command the servant to slash at enemies nearby. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting independently and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shikigami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have servants made from enchanted paper, capable of flying, spying, and carrying messages.  Equipping this kit provides half a dozen shikigami. You can expend a Potion to create an additional six servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fell Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ash Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or reanimated. You have Advantage when attacking undead with this weapon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mournblade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a demon trapped inside. Using this weapon restores a Fortune box whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to attack demons and spirits. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy, and cause seizures. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Siphoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to steal energy. Can be used to drain lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vim Drink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A distant ancestor to the modern alchemist potion. When consumed, the user expends a Mental box in exchange for recovering a Physical box. Can be used by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wither Toxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bitter venom that causes intense pain. Can be used to inflict Mental damage, cripple the wills of enemies, or cloud the mind. You have Advantage when interrogating someone for information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunslinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, High Damage, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hefty iron sidearm that packs a punch. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of enchanted bullets. Includes silver bullets that tear through magic, whiplash bullets that create gusts of wind to disperse smokescreens, and spark bullets that manifest as bolts of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw Pistol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A handgun built for quick access. If you strike before an enemy, the attack is treated as a sneak attack. You have Advantage when determining who goes first, such as rolling turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trick Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of bullets with unusual effects. Includes non-lethal rubber bullets, two-shot bullets that can change trajectory in midflight, and paint bullets that stain skin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of specialized bullets for warfare. Includes steel-tipped bullets for piercing through cover, breaching rounds for opening doors, and flare rounds for signalling. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warded Greatcoat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A leather jacket that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
+    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyglass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak with and undestand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike multiple enemies without harming allies. You have Advantage when petitioning spirits with Presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances and to disperse illusions. You have Advantage on Presence rolls to sense magical phenomenon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A staff that leverages alchemy to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hallucinogenic dust. Can be used to induce confusion, render someone highly suggestable, or inflict Mental damage. You have Advantage when lying to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged, High Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous venoms and poisons. Can be applied to the user’s weapons to sap strength, cause blindness, or put targets into shock. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of daggers meant for close combat. Using this weapon gives you Advantage on rolls to dodge until the start of your next turn. You have Advantage on rolls to move swifty, such as when retreating or pursuing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated liquid that negates magic. Can be used to counter spells, damage magical objects, and repel monsters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adamantine Gauntets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy gauntlets made of a nearly indestructable material. Can be used to grab blades, poisonous spines, molten metal, and other hazards without harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Defense, Accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regulation-length sword for resolving legal disputes. Using this weapon gives you Advantage on rolls to defend until the start of your next turn, and adds +1 to the roll result of your attacks. You have Advantage when provoking others into a duel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted iron sword that glows with heat. Using this weapon ignites flammable surfaces on contact. Successful attacks deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of boots that provide steady footing in all manner of conditions. You are immune to environmental hazards that impede your movement, such as grease slicks or ice, and attempts to knock you over. Your feet are protected from spikes, fire, and similar sources of harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most enemies and objects. Successful attacks deal an additional box of damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Anointing Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">Gear, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to destroy magic and repel evil. You have Advantage when destroying magic, inspiring others, or intimidating the undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler Salts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive the unconscious, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
+    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. Can be used as bait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to interfere with magic. You have Advantage when inspiring or rallying others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
   </si>
   <si>
     <t xml:space="preserve">Inscribed Shield</t>
   </si>
   <si>
-    <t xml:space="preserve">Gear, Weapon, Defense</t>
-  </si>
-  <si>
     <t xml:space="preserve">A shield warded against hostile magic. Spells rebound from its surface. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending against magical attacks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Smiting Mace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to knock enemies back or into the air with significant force. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taunting Scourge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted metal chain with barbs that bind and restrict enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaching Hammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short hammer that sends shockwaves through objects, breaking them apart. Using this weapon bypasses the effects of armor and damages enemy equipment. You have Advantage when destroying objects and obstacles.</t>
+    <t xml:space="preserve">An enchanted metal chain with barbs that bind and resticts enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
   </si>
   <si>
     <t xml:space="preserve">Ogre Draught</t>
@@ -636,1227 +1869,18 @@
     <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons and diseases. You have Advantage against hazards like sweltering heat and bitter cold.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pocket Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this kit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocklance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when attacking targets wearing metal armor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanguard Shield</t>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this substance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
   </si>
   <si>
     <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a full tower shield. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending others from harm.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wicked Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sharp shortsword that seeks out targets. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. You have Advantage when rolling Magic against other mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and curse others with night terrors. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and understand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shepherd’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute can calm wild animals and insects, or stir them into a dangerous frenzy. You can use I Know a Guy to recruit a local beast to aid you. You have Advantage when influencing animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when tracking others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. You have Advantage on rolls to interact with plant life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer’s Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted leather whip that controls beasts. Successful attacks against wildlife deal one box of Mental damage instead of Physical. A beast incapacitated with this weapon will submit to the wielder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of charmed axes that gravitate towards one another. Throwing one axe will cause it to boomerang back towards the other. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whisper Bowstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when trying to move quietly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concussive Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over with instead of dealing Physical damage. You can expend a Potion to create a concussive grenade that deals damage and creates a shockwave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grease Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capsule bullets filled with slippery and flammable grease, covering targets instead of dealing Physical damage. You can expend a Potion to create a grease bomb that covers an area with oil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron-Sighted Rifle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphos Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volatile bullets that ignite targets and produce blinding flashes of light. You can expend a Potion to create a flash bomb that blinds enemies, or a fire bomb that causes damage and sets the area ablaze.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchcoat Boomstick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loaded bullets that fire twice, changing trajectory in mid-air to shoot around corners or cover. You can expend a Potion to create a ball bearing grenade that deals damage and covers an area with metal balls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. You can expend a Mana box to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. You cannot be knocked over while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. You cannot be harmed by fire while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. You are immune to poison while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totemic Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike groups of enemies without harming nearby allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances, avoid the need for sleep, and disperse illusions. You have Advantage on Presence rolls to sense and identify magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Gauntlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntlets that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles and other attacks. You can spend a Mana box to avoid harm from incoming attacks. You have Advantage when blocking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to heal yourself and react before others. The number of Physical boxes healed is equal to the result of the roll. You have Advantage when dodging.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. You have Advantage when breaking free of grapples and similar entanglements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Terra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of a blow delivered by your body. Can be used to add a box of Physical damage to a strike, knock enemies back, and break through obstacles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Templar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abjuring Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within. You have Advantage when attacking mages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage. You have Advantage when attacking magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Censure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Wildlife are repelled by the smell, making it useful for setting up camp in dangerous areas. You have Advantage when defending against magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic. You have Advantage when grappling others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off spirits. You are immune to curses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolling Bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used to put others to sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Witch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An intelligent bird spirit, usually a crow or raven, that serves you. It can speak, deliver messages, and warn you of nearby threats. If destroyed, you can call it back into the world with a bird feather. You have Advantage when noticing danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying Broom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slowing Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon reduces a target’s ability to react quickly, think clearly, and pursue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that influences positive emotions. Can be used to calm others, improve moods, and dimish hostilities. When you fail to influence someone with Presence, they do not become hostile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willow Perfume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bottle of alchemic perfume that fogs minds. Can be used to erase recent memories, lower someone’s guard, and become less noticable. You have Advantage when using Presence to hypnotize or charm others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it. You can change your familiar’s shape by expending a Mana box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electromagnetic energy. Can be used to shoot lightning, magnetize metals, and control the flow of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to perform telekinesis, lob blasts of kinetic force at enemies, and adjust the speed of moving objects. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to pull an enemy to the ground, lighten the weight of an object, and adjust gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to ignite enemies, freeze objects, and adjust temperature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemical principles to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception, Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agility, Cunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with good reflexes and a silver tongue. Known for their versatility and stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength, Bravery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An adventurer with strong arms and a stronger will. Known for their aptitude with weapons and armor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build your own adventurer. Choose any Specialization and one of the following Skill layouts: two +2 skills, or one +2 skill and three +1 skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archaeologist, Wax Stamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A scholar that draws ancient sigils onto objects, giving them power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poisons, Throwing Needles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expert infiltrator proficient in poisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illusions, Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member of a courier guild with expertise in stagecraft and illusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Swords, Duelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An accomplished swordsman with a collection of enchanted blades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mist Rod, Bombs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summoning, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A practitioner of illegal summoning magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marauder, Swashbuckling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spearman, Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A knight that mimics the power of dragons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A secretive magician with power over the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructs, Imbued Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An artificer that creates semi-magical servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curses, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw, Trick Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A skirmisher that relies on quick reflexes and modified bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An honorable knight with a holy sword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An infantryman trained in construction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magician that governs over the boundaries between worlds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer, Primal Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A traditional warrior, known for their affinity with the natural world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guns, Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sharpshooter with a knack for explosives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementalist, War Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elemental magician renowned for their power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battlemage, Magic Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A frontline magician that specializes in empowering their own body.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warrior, Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mage hunter and monster slayer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion, Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A member of a courier guild with a flying broom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat, Motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An eccentric magician that manipulates physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonant Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabotage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallwalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cut Above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatal Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intricate Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingering Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonic Rend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Metal Jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Spatiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Temporality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Hop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equilibrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiate light and heat around yourself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draining Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane Archer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gladiator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallurgist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Decomposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runehammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrolic Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marksman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorcerer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouncing Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thick leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiplash Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skyglass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and undestand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike multiple enemies without harming allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances and to disperse illusions. You have Advantage on Presence rolls to sense magical phenomenon. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemy to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hallucinogenic dust. Can be used to induce confusion, render someone highly suggestable, or inflict Mental damage. You have Advantage when lying to others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous venoms and poisons. Can be applied to the user’s weapons to sap strength, cause blindness, or put targets into shock. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of daggers meant for close combat. Using this weapon gives you Advantage on rolls to dodge until the start of your next turn. You have Advantage on rolls to move swifty, such as when retreating or pursuing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated liquid that negates magic. Can be used to counter spells, damage magical objects, and repel monsters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adamantine Gauntets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy gauntlets made of a nearly indestructable material. Can be used to grab blades, poisonous spines, molten metal, and other hazards without harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A regulation-length sword for resolving legal disputes. Using this weapon gives you Advantage on rolls to defend until the start of your next turn, and adds +1 to the roll result of your attacks. You have Advantage when provoking others into a duel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted iron sword that glows with heat. Using this weapon ignites flammable surfaces on contact. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of boots that provide steady footing in all manner of conditions. You are immune to environmental hazards that impede your movement, such as grease slicks or ice, and attempts to knock you over. Your feet are protected from spikes, fire, and similar sources of harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most enemies and objects. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. Can be used as bait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to interfere with magic. You have Advantage when inspiring or rallying others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted metal chain with barbs that bind and resticts enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this substance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weapon, Accurate, Reaction</t>
   </si>
   <si>
@@ -1960,9 +1984,6 @@
   </si>
   <si>
     <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaker Axe</t>
   </si>
   <si>
     <t xml:space="preserve">An indestructable axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to break through materials like stone and metal. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects. </t>
@@ -3540,8 +3561,8 @@
   </sheetPr>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4380,7 +4401,7 @@
         <v>122</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>123</v>
@@ -4794,7 +4815,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -4805,13 +4826,13 @@
         <v>180</v>
       </c>
       <c r="D74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E74" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -4819,13 +4840,13 @@
         <v>179</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,13 +4857,13 @@
         <v>179</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,13 +4874,13 @@
         <v>179</v>
       </c>
       <c r="C77" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="E77" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,13 +4891,13 @@
         <v>179</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,47 +4908,47 @@
         <v>179</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="D80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,16 +4956,16 @@
         <v>54</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,16 +4973,16 @@
         <v>54</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,13 +4990,13 @@
         <v>54</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>204</v>
@@ -4986,7 +5007,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>205</v>
@@ -5835,7 +5856,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6100,7 +6121,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>356</v>
@@ -6323,7 +6344,7 @@
         <v>374</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>25</v>
@@ -8674,19 +8695,19 @@
         <v>278</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>287</v>
+        <v>546</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8703,13 +8724,13 @@
         <v>25</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8743,19 +8764,19 @@
         <v>71</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8772,13 +8793,13 @@
         <v>25</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8789,19 +8810,19 @@
         <v>71</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8812,19 +8833,19 @@
         <v>71</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8841,13 +8862,13 @@
         <v>25</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8864,13 +8885,13 @@
         <v>142</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8910,13 +8931,13 @@
         <v>25</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8927,19 +8948,19 @@
         <v>137</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8973,19 +8994,19 @@
         <v>137</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9045,7 +9066,7 @@
         <v>242</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>244</v>
@@ -9140,13 +9161,13 @@
         <v>476</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9186,13 +9207,13 @@
         <v>38</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9209,13 +9230,13 @@
         <v>38</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9232,13 +9253,13 @@
         <v>38</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9278,13 +9299,13 @@
         <v>38</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9301,13 +9322,13 @@
         <v>38</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,19 +9339,19 @@
         <v>251</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,13 +9368,13 @@
         <v>38</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9370,13 +9391,13 @@
         <v>476</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,13 +9414,13 @@
         <v>25</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9416,13 +9437,13 @@
         <v>25</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,13 +9552,13 @@
         <v>536</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9554,13 +9575,13 @@
         <v>25</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,7 +9595,7 @@
         <v>27</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>29</v>
@@ -9623,13 +9644,13 @@
         <v>25</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9669,13 +9690,13 @@
         <v>38</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9735,16 +9756,16 @@
         <v>45</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9761,13 +9782,13 @@
         <v>25</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,13 +9805,13 @@
         <v>38</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9807,13 +9828,13 @@
         <v>38</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9824,19 +9845,19 @@
         <v>223</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,13 +9874,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9876,13 +9897,13 @@
         <v>38</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,13 +9920,13 @@
         <v>38</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9919,7 +9940,7 @@
         <v>232</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>234</v>
@@ -9945,13 +9966,13 @@
         <v>520</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,19 +9983,19 @@
         <v>55</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9988,16 +10009,16 @@
         <v>58</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10014,13 +10035,13 @@
         <v>479</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,13 +10058,13 @@
         <v>25</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10060,13 +10081,13 @@
         <v>479</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,19 +10121,19 @@
         <v>179</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>180</v>
+        <v>601</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,19 +10144,19 @@
         <v>179</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10146,19 +10167,19 @@
         <v>179</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,19 +10190,19 @@
         <v>179</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>187</v>
+        <v>605</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>189</v>
+        <v>606</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>189</v>
+        <v>606</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>189</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10192,19 +10213,19 @@
         <v>179</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>479</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10215,19 +10236,19 @@
         <v>179</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10235,22 +10256,22 @@
         <v>54</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>197</v>
+        <v>608</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>198</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,22 +10279,22 @@
         <v>54</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10281,22 +10302,22 @@
         <v>54</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10304,7 +10325,7 @@
         <v>54</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>118</v>
@@ -10313,13 +10334,13 @@
         <v>520</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10327,22 +10348,22 @@
         <v>54</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>204</v>
+        <v>613</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>204</v>
+        <v>613</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>204</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10350,13 +10371,13 @@
         <v>54</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>205</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>207</v>
@@ -10426,13 +10447,13 @@
         <v>237</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10441,13 +10462,13 @@
         <v>237</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10476,16 +10497,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10493,16 +10514,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10510,16 +10531,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10527,16 +10548,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10544,16 +10565,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10561,68 +10582,68 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10660,7 +10681,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10677,7 +10698,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,7 +10715,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10705,13 +10726,13 @@
         <v>251</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10722,13 +10743,13 @@
         <v>251</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10745,7 +10766,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10963,16 +10984,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10980,16 +11001,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11025,16 +11046,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>641</v>
+        <v>194</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11042,7 +11063,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>138</v>
@@ -11051,7 +11072,7 @@
         <v>476</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11059,16 +11080,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>197</v>
+        <v>608</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11076,16 +11097,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11093,7 +11114,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>118</v>
@@ -11102,7 +11123,7 @@
         <v>476</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11110,13 +11131,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>205</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>207</v>
@@ -11133,13 +11154,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>476</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11152,20 +11173,20 @@
         <v>476</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11190,13 +11211,13 @@
         <v>165</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,10 +11231,10 @@
         <v>171</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11224,13 +11245,13 @@
         <v>165</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,7 +11268,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11285,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11275,13 +11296,13 @@
         <v>165</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11378,13 +11399,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11395,13 +11416,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11418,7 +11439,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11429,13 +11450,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11446,13 +11467,13 @@
         <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11463,13 +11484,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11486,7 +11507,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11497,13 +11518,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11520,7 +11541,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11531,13 +11552,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11548,13 +11569,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11565,13 +11586,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11582,13 +11603,13 @@
         <v>237</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11599,13 +11620,13 @@
         <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11616,13 +11637,13 @@
         <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11633,13 +11654,13 @@
         <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11656,7 +11677,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11667,13 +11688,13 @@
         <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11684,13 +11705,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>444</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11701,13 +11722,13 @@
         <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11718,13 +11739,13 @@
         <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11735,13 +11756,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11752,13 +11773,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11769,13 +11790,13 @@
         <v>209</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11786,13 +11807,13 @@
         <v>251</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11803,13 +11824,13 @@
         <v>251</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11820,13 +11841,13 @@
         <v>251</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11837,13 +11858,13 @@
         <v>251</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11854,13 +11875,13 @@
         <v>251</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11871,13 +11892,13 @@
         <v>251</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11888,13 +11909,13 @@
         <v>304</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>388</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11905,13 +11926,13 @@
         <v>304</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11922,13 +11943,13 @@
         <v>304</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>444</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11939,13 +11960,13 @@
         <v>304</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11956,13 +11977,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11973,13 +11994,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>417</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11996,7 +12017,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12013,7 +12034,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12024,13 +12045,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12041,13 +12062,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12058,13 +12079,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12075,13 +12096,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12092,13 +12113,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12115,7 +12136,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12132,7 +12153,7 @@
         <v>142</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12143,13 +12164,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12160,13 +12181,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12177,13 +12198,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>388</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12194,13 +12215,13 @@
         <v>223</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12211,13 +12232,13 @@
         <v>223</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12228,13 +12249,13 @@
         <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12245,13 +12266,13 @@
         <v>223</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>388</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12262,13 +12283,13 @@
         <v>223</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>378</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12279,13 +12300,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>417</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12293,16 +12314,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12310,16 +12331,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12327,16 +12348,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12344,16 +12365,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12361,16 +12382,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12378,7 +12399,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>68</v>
@@ -12387,7 +12408,7 @@
         <v>378</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12398,13 +12419,13 @@
         <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12415,13 +12436,13 @@
         <v>179</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12432,13 +12453,13 @@
         <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12449,13 +12470,13 @@
         <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12466,13 +12487,13 @@
         <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12483,13 +12504,13 @@
         <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12497,16 +12518,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12514,16 +12535,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12531,16 +12552,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>388</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12548,16 +12569,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12565,16 +12586,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12582,16 +12603,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>435</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12694,13 +12715,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12714,10 +12735,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12731,10 +12752,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12748,10 +12769,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12765,10 +12786,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12779,13 +12800,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12796,13 +12817,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12813,13 +12834,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12830,13 +12851,13 @@
         <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12847,13 +12868,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12864,13 +12885,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12881,13 +12902,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12901,10 +12922,10 @@
         <v>238</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12915,13 +12936,13 @@
         <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12932,13 +12953,13 @@
         <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12949,13 +12970,13 @@
         <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12969,10 +12990,10 @@
         <v>249</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12983,13 +13004,13 @@
         <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13000,13 +13021,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13017,13 +13038,13 @@
         <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13034,13 +13055,13 @@
         <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13051,13 +13072,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13068,13 +13089,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13085,13 +13106,13 @@
         <v>209</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13102,13 +13123,13 @@
         <v>251</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13119,13 +13140,13 @@
         <v>251</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13136,13 +13157,13 @@
         <v>251</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13153,13 +13174,13 @@
         <v>251</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13170,13 +13191,13 @@
         <v>251</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13187,13 +13208,13 @@
         <v>251</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13204,13 +13225,13 @@
         <v>304</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13221,13 +13242,13 @@
         <v>304</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13238,13 +13259,13 @@
         <v>304</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13255,13 +13276,13 @@
         <v>304</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13272,13 +13293,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13289,13 +13310,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13306,13 +13327,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13323,13 +13344,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13340,13 +13361,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13357,13 +13378,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13374,13 +13395,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13391,13 +13412,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13408,13 +13429,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13425,13 +13446,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13442,13 +13463,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13459,13 +13480,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13476,13 +13497,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13493,13 +13514,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13510,13 +13531,13 @@
         <v>223</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13527,13 +13548,13 @@
         <v>223</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13544,13 +13565,13 @@
         <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13561,13 +13582,13 @@
         <v>223</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13578,13 +13599,13 @@
         <v>223</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13595,13 +13616,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13609,16 +13630,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13626,16 +13647,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13643,16 +13664,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13660,16 +13681,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13677,16 +13698,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13694,16 +13715,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13714,13 +13735,13 @@
         <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13731,13 +13752,13 @@
         <v>179</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13748,13 +13769,13 @@
         <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13765,13 +13786,13 @@
         <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13782,13 +13803,13 @@
         <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13799,13 +13820,13 @@
         <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13813,16 +13834,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13830,16 +13851,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13847,16 +13868,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13864,16 +13885,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13881,16 +13902,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13898,16 +13919,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -12,19 +12,17 @@
     <sheet name="Class" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Specialization" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Kit List Advanced" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Kit List Experimental" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Kit List Dump" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Kit List Old 2" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Kit List Old" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Kit List Dump" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Kit List Old 2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Kit List Old" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Class!$A$1:$C$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$133</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Advanced'!$A$1:$E$73</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Dump'!$A$1:$E$109</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Experimental'!$A$1:$E$115</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Dump'!$A$1:$E$109</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="807">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -1515,841 +1513,508 @@
     <t xml:space="preserve">Elixir</t>
   </si>
   <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When added to fire it becomes hellfire, burning hotter and creating a noxious stench. You can expend a Potion to create a hellfire grenade that deals damage and creates waterproof flames.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A drug that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you produce a Potion, it heals an additional Physical box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful attacks against magical creatures deal one additional box of Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage on all rolls to influence magical creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon imps, consult devils for knowledge, or fling hellfire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon pixies, bewitch the senses, and change your appearence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A projectile grappling hook, the last resort of unfortunate sky pirates. Can be used to avoid fatal falls, capture fleeing enemies, and make daring entrances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles with significant force, but it requires several minutes to reload. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritual knife used in sacrificial practices. This weapon provides a Mana Point when it’s used to incapacitate a target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous toxin that corrupts and corrodes living matter. Can be used to spread disease, wither plants, and poison water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff carved from a lightning-stuck tree. Wielding this weapon gives you Advantage on all rolls to influence animals and insects. Natural wildlife will not attack you unless provoked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to take the form of an animal. Can be used to transform into wolves, birds, and other animals, as well as communicate with beasts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to change the weather. Can be used to summon rain, call down lightning, and drive howling winds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to gently influence time. Can be used to peer into the past, accelerate decay, and speed the growth of plants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of cursed throwing knives that prevent alchemical and magical healing. Using this weapon ensures that targets cannot be revived or brought back as undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sword with a demon trapped inside that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. You have Advantage when intimidating others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to push terror into the minds of others. Can be used to incite a retreat, paralyze an enemy with fear, and interrogate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to steal away energy. Can be used to drain the lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A distant ancestor to the modern alchemist’s potion. When consumed, the user expends a Mental box in exchange for recoving a Physical box. Can be used by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bitter venom that causes intense pain. Can be applied to the user’s weapons to inflict Mental damage, cripple the wills of enemies, or cloud the mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouncing Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubberized bullets that ricochet in closed spaces. Can be used to bounce gunfire around corners, to cause non-lethal harm, and to knock objects over instead of piercing them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hefty iron sidearm that hits harder than most. Successful attacks deal an additional box of damage.</t>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmuter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Empower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Reshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Transmute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to make a target immune to magic, incapable of using magic, or to remove magic from an object. You can expend a Potion to create a bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An indestructable axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to break through materials like stone and metal. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Accurate, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmonic Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A steel sword that resonates when struck. Using this weapon creates painful vibrations that bypass armor and barriers. Successful attacks deal an additional box of damage. You can expend a Fortune box to shatter ice, glass, and other crystalline materials in an area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cursed sword that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. While this kit is equipped you can spend Physical boxes in place of a Fortune boxes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaping Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ointment that temporarily softens metal and stone when rubbed in. Can be used to sharpen objects into blades, repair damaged tools, and shape rock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercing Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel-tipped bullets that punch through armor and cover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, your first attack in combat counts as a sneak attack. You cannot use grenades when using this weapon to attack. You have Advantage on rolls to determine who acts first, including turn order for combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubber Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubberized bullets that can be used for non-lethal attacks. Ricochet uncontrollably in closed spaces.</t>
   </si>
   <si>
     <t xml:space="preserve">Silver Bullets</t>
   </si>
   <si>
-    <t xml:space="preserve">Bullets that tear through magic. Can be used to break through spells, damage enchanted equipment, and harm spirits. Valuable enough to be used as bribes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thick leather coat that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiplash Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets that leave a gust of wind in their wake. Can be used to clear smokescreens, scatter debris, and throw arrows off course.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of gauntles that conduct magic. Used to channel Spellsword Talismans outside the body. Can project magic a short distance away, into an object being held, or into a person being touched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, and break grapples. You can spend a Mana box to avoid harm from incoming attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, and quicken your thoughts. May cause Physical damage to you if used excessively. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, and stave off cold. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. You can expend a Potion to create an anti-magic bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. You can expend a Potion to create a knockout grenade that releases sleeping gas into an area, dealing Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaccuum Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jar of carefully prepared void, which emits a strong suction force when opened. Can be used to capture a fog of poisonous gas, put out fires, propel yourself forward. You can expend a Potion to create an implosion grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorpal Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowing vorpal metal, exceedingly sharp and highly resillient. Can be used to mend broken objects, create sheets of metal, and make precise cuts through most materials. You can use a Potion to create a spike of vorpal metal that pierces through an object or enemy, dealing an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength. You can expend a Potion to have the shadow deflect an incoming attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Potion to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Potion to have the Quicksilver transform into something large or complex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skyglass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of floating glass, able to break apart into sharp shards and reform at will so long as it’s near you. You can expend a Potion to transform it into a grenade, shredding everything in the blast radius before reforming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate, Ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object affiliated with your patron spirits in some way. Using this weapon, attacks with Talismans are especially effective against magical entities. You have Advantage when rolling Magic against other mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when petitioning spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to put others into a stupor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak with and undestand all creatures. Can be used to speak with animals, put compulsions on others, and understand otherworldly creatures . You have Advantage when using Presence to command others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A decorated staff that fosters balance between the elements. Using this weapon, attacks with Talismans become more precise, able to strike multiple enemies without harming allies. You have Advantage when petitioning spirits with Presence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared dust that enhances magical senses. Can be used to induce deep trances and to disperse illusions. You have Advantage on Presence rolls to sense magical phenomenon. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a shapeshifting servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, issue commands to it, and cast spells through it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A staff that leverages alchemy to improve the effectiveness of combat magic. Using this weapon adds +1 to attacks with Talismans, significantly improving the chance that they’ll cause harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hallucinogenic dust. Can be used to induce confusion, render someone highly suggestable, or inflict Mental damage. You have Advantage when lying to others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous venoms and poisons. Can be applied to the user’s weapons to sap strength, cause blindness, or put targets into shock. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of daggers meant for close combat. Using this weapon gives you Advantage on rolls to dodge until the start of your next turn. You have Advantage on rolls to move swifty, such as when retreating or pursuing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated liquid that negates magic. Can be used to counter spells, damage magical objects, and repel monsters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+    <t xml:space="preserve">Anti-magic bullets that can shatter spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twoshot Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trick bullets that can fire twice, changing trajectory in midair. Can be used to fire around corners or other obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Chemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re able to multitask while fighting. You can use Produce a Potion or What You Needed in the same action as making an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigger Batches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerously potent acid that can be diluted for use in many tasks. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potions from Produce a Potion heal an additional box of damage. Grenades from Produce a Grenade can either a create a larger blast radius or deal additional damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Charge Point to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate the rate of decay. Can be used to accelerate or decelerate rotting, rusting, and other decomposition processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifting Sniper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks are difficult to trace. Using this technique reduces the likelihood that you’ll be exposed after making a sneak attack. You can expend a Prep Point to avoid harm from an attack or hazard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dervish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, darting outside of melee range or firing shots while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warded Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
   </si>
   <si>
     <t xml:space="preserve">Beast’s Balm</t>
   </si>
   <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Ranged, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adamantine Gauntets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy gauntlets made of a nearly indestructable material. Can be used to grab blades, poisonous spines, molten metal, and other hazards without harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Defense, Accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A regulation-length sword for resolving legal disputes. Using this weapon gives you Advantage on rolls to defend until the start of your next turn, and adds +1 to the roll result of your attacks. You have Advantage when provoking others into a duel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted iron sword that glows with heat. Using this weapon ignites flammable surfaces on contact. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of boots that provide steady footing in all manner of conditions. You are immune to environmental hazards that impede your movement, such as grease slicks or ice, and attempts to knock you over. Your feet are protected from spikes, fire, and similar sources of harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most enemies and objects. Successful attacks deal an additional box of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anointing Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ritually prepared oil that knights apply before going to battle. Monsters, beasts, and the undead will target you before your allies. You are immune to illusions and curses. Can be used as bait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade quenched in holy water. Using this weapon allows your attacks to interfere with magic. You have Advantage when inspiring or rallying others. </t>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. You can expend a Prep Point to change a Kit without resting, provided you have a few minutes to do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderclap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks culminate in deafening peals of thunder, causing harm through sound and shockwaves. Using this technique circumvents armor, barriers, and similar defenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiplash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when provoking others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whirlwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit all enemies adjacent to you. Using this technique gives your attacks a small area of effect around your body, targeting enemies immediately next to you. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. You recover a Fortune Point when using this Kit. You cannot attempt to block, dodge, or otherwise reduce damage taken from using this Kit. </t>
   </si>
   <si>
     <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscribed Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shield warded against hostile magic. Spells rebound from its surface. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending against magical attacks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted metal chain with barbs that bind and resticts enemies. Using this weapon grapples targets in addition to any damage dealt, compelling them to attack the user. You have Advantage when provoking others into attacking you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogre Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons and diseases. You have Advantage against hazards like sweltering heat and bitter cold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when building or repairing objects with this substance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a full tower shield. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when defending others from harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Accurate, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmuter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Empower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Reshape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Transmute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to make a target immune to magic, incapable of using magic, or to remove magic from an object. You can expend a Potion to create a bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flourish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An indestructable axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to break through materials like stone and metal. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A short spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harmonic Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A steel sword that resonates when struck. Using this weapon creates painful vibrations that bypass armor and barriers. Successful attacks deal an additional box of damage. You can expend a Fortune box to shatter ice, glass, and other crystalline materials in an area. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cursed sword that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. Successful attacks deal an additional box of damage. While this kit is equipped you can spend Physical boxes in place of a Fortune boxes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaping Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An ointment that temporarily softens metal and stone when rubbed in. Can be used to sharpen objects into blades, repair damaged tools, and shape rock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piercing Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel-tipped bullets that punch through armor and cover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, your first attack in combat counts as a sneak attack. You cannot use grenades when using this weapon to attack. You have Advantage on rolls to determine who acts first, including turn order for combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubber Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubberized bullets that can be used for non-lethal attacks. Ricochet uncontrollably in closed spaces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-magic bullets that can shatter spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twoshot Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trick bullets that can fire twice, changing trajectory in midair. Can be used to fire around corners or other obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Chemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re able to multitask while fighting. You can use Produce a Potion or What You Needed in the same action as making an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bigger Batches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerously potent acid that can be diluted for use in many tasks. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potions from Produce a Potion heal an additional box of damage. Grenades from Produce a Grenade can either a create a larger blast radius or deal additional damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Charge Point to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electromagnetic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate the rate of decay. Can be used to accelerate or decelerate rotting, rusting, and other decomposition processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifting Sniper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks are difficult to trace. Using this technique reduces the likelihood that you’ll be exposed after making a sneak attack. You can expend a Prep Point to avoid harm from an attack or hazard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dervish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, darting outside of melee range or firing shots while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warded Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. You can expend a Prep Point to change a Kit without resting, provided you have a few minutes to do so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical boxes, you recover one more than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderclap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks culminate in deafening peals of thunder, causing harm through sound and shockwaves. Using this technique circumvents armor, barriers, and similar defenses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiplash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when provoking others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whirlwind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit all enemies adjacent to you. Using this technique gives your attacks a small area of effect around your body, targeting enemies immediately next to you. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. You recover a Fortune Point when using this Kit. You cannot attempt to block, dodge, or otherwise reduce damage taken from using this Kit. </t>
   </si>
   <si>
     <t xml:space="preserve">Impose</t>
@@ -3550,10 +3215,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3561,8 +3222,8 @@
   </sheetPr>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4044,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>77</v>
@@ -7728,20 +7389,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="48.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7760,2637 +7420,911 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="22" t="s">
+    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E7" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C8" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="E9" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C10" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E62" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E64" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="E71" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E74" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="E76" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="E77" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="C78" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="E78" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C79" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="18" t="s">
+      <c r="E79" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="G74" s="27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>608</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
+    </row>
+    <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E115"/>
+  <autoFilter ref="A1:E109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10409,14 +8343,14 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109.53"/>
@@ -10444,69 +8378,101 @@
         <v>70</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>378</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>619</v>
+        <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10514,16 +8480,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>622</v>
+        <v>148</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>623</v>
+        <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>624</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10531,16 +8497,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>626</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10548,16 +8514,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>627</v>
+        <v>150</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>628</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10565,16 +8531,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>629</v>
+        <v>510</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>630</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10582,106 +8548,152 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>631</v>
+        <v>512</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>632</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="C13" s="18" t="s">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>634</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="C14" s="18" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="C15" s="18" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="C16" s="18" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
         <v>208</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>307</v>
+        <v>577</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10689,16 +8701,16 @@
         <v>208</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>252</v>
+        <v>579</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10706,16 +8718,16 @@
         <v>208</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>254</v>
+        <v>581</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10723,16 +8735,16 @@
         <v>208</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10740,16 +8752,16 @@
         <v>208</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10757,243 +8769,543 @@
         <v>208</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
+      <c r="A37" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+      <c r="A38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
+      <c r="A47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
+      <c r="A48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>378</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11001,61 +9313,101 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D57" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="15" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="A60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="A61" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>194</v>
+        <v>657</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11063,16 +9415,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>476</v>
+        <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11080,16 +9432,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11097,16 +9449,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>200</v>
+        <v>662</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11114,16 +9466,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>118</v>
+        <v>664</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11131,180 +9483,126 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>648</v>
+        <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>205</v>
+        <v>666</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>614</v>
+        <v>378</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>207</v>
+        <v>667</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
+      <c r="A68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>531</v>
+      </c>
       <c r="C69" s="14" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>531</v>
+      </c>
       <c r="C70" s="14" t="s">
-        <v>155</v>
+        <v>672</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>531</v>
+      </c>
       <c r="C71" s="14" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
+      <c r="A72" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="A73" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
+      <c r="C73" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11361,1322 +9659,6 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>679</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>771</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="A1:E109"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E115"/>
-  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
@@ -12715,13 +9697,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>750</v>
+        <v>638</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>791</v>
+        <v>680</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>792</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12735,10 +9717,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>793</v>
+        <v>682</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>794</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12752,10 +9734,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>795</v>
+        <v>684</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>796</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12769,10 +9751,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>791</v>
+        <v>680</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>797</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12786,10 +9768,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>793</v>
+        <v>682</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>798</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12800,13 +9782,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>799</v>
+        <v>688</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>800</v>
+        <v>689</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>801</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12817,13 +9799,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>802</v>
+        <v>691</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>791</v>
+        <v>680</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>803</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12834,13 +9816,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>804</v>
+        <v>693</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>791</v>
+        <v>680</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>805</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12851,13 +9833,13 @@
         <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>806</v>
+        <v>695</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>791</v>
+        <v>680</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>807</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12868,13 +9850,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>808</v>
+        <v>697</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>793</v>
+        <v>682</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>809</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12885,13 +9867,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>812</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12902,13 +9884,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>813</v>
+        <v>702</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>814</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12922,10 +9904,10 @@
         <v>238</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>816</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12936,13 +9918,13 @@
         <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>684</v>
+        <v>571</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>817</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12953,13 +9935,13 @@
         <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>818</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12970,13 +9952,13 @@
         <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>819</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12990,10 +9972,10 @@
         <v>249</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>820</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13004,13 +9986,13 @@
         <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>615</v>
+        <v>492</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>821</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13021,13 +10003,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>823</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13038,13 +10020,13 @@
         <v>209</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>692</v>
+        <v>579</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>824</v>
+        <v>713</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>825</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13055,13 +10037,13 @@
         <v>209</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>826</v>
+        <v>715</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>827</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13072,13 +10054,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>828</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13089,13 +10071,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>700</v>
+        <v>587</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>829</v>
+        <v>718</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>830</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13106,13 +10088,13 @@
         <v>209</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>831</v>
+        <v>720</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>832</v>
+        <v>721</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>833</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13123,13 +10105,13 @@
         <v>251</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>834</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13140,13 +10122,13 @@
         <v>251</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>704</v>
+        <v>591</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>835</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13157,13 +10139,13 @@
         <v>251</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>706</v>
+        <v>593</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>836</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13174,13 +10156,13 @@
         <v>251</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>837</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13191,13 +10173,13 @@
         <v>251</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>710</v>
+        <v>597</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>838</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13208,13 +10190,13 @@
         <v>251</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>839</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13225,13 +10207,13 @@
         <v>304</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>716</v>
+        <v>603</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>840</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13242,13 +10224,13 @@
         <v>304</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>718</v>
+        <v>605</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>841</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13259,13 +10241,13 @@
         <v>304</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>842</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13276,13 +10258,13 @@
         <v>304</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>722</v>
+        <v>609</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>843</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13293,13 +10275,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>844</v>
+        <v>733</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>845</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13310,13 +10292,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>724</v>
+        <v>611</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>846</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13327,13 +10309,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>847</v>
+        <v>736</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>848</v>
+        <v>737</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>849</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13344,13 +10326,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>850</v>
+        <v>739</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>851</v>
+        <v>740</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>852</v>
+        <v>741</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13361,13 +10343,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>853</v>
+        <v>742</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>854</v>
+        <v>743</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>855</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13378,13 +10360,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>728</v>
+        <v>615</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>857</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13395,13 +10377,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>730</v>
+        <v>617</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>858</v>
+        <v>747</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>859</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13412,13 +10394,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>860</v>
+        <v>749</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>861</v>
+        <v>750</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>862</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13429,13 +10411,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>863</v>
+        <v>752</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13446,13 +10428,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>866</v>
+        <v>755</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>868</v>
+        <v>757</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13463,13 +10445,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>869</v>
+        <v>758</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>870</v>
+        <v>759</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>871</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13480,13 +10462,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>741</v>
+        <v>628</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>872</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13497,13 +10479,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>743</v>
+        <v>630</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>873</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13514,13 +10496,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>874</v>
+        <v>763</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>875</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13531,13 +10513,13 @@
         <v>223</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>876</v>
+        <v>765</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>877</v>
+        <v>766</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>878</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13548,13 +10530,13 @@
         <v>223</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>752</v>
+        <v>640</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>851</v>
+        <v>740</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>879</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13565,13 +10547,13 @@
         <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>754</v>
+        <v>642</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>858</v>
+        <v>747</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>880</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13582,13 +10564,13 @@
         <v>223</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>881</v>
+        <v>770</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13599,13 +10581,13 @@
         <v>223</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>882</v>
+        <v>771</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>883</v>
+        <v>772</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>884</v>
+        <v>773</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13616,13 +10598,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>885</v>
+        <v>774</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>886</v>
+        <v>775</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13630,16 +10612,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>682</v>
+        <v>569</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>887</v>
+        <v>776</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>683</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13647,16 +10629,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>890</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13664,16 +10646,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>891</v>
+        <v>780</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>870</v>
+        <v>759</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>892</v>
+        <v>781</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13681,16 +10663,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>893</v>
+        <v>782</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>894</v>
+        <v>783</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>895</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13698,16 +10680,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>777</v>
+        <v>666</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>887</v>
+        <v>776</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>896</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13715,16 +10697,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>897</v>
+        <v>786</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>887</v>
+        <v>776</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>768</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13735,13 +10717,13 @@
         <v>179</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>898</v>
+        <v>787</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>899</v>
+        <v>788</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>900</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13752,13 +10734,13 @@
         <v>179</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>769</v>
+        <v>657</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>901</v>
+        <v>790</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>902</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13769,13 +10751,13 @@
         <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>771</v>
+        <v>660</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>903</v>
+        <v>792</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13786,13 +10768,13 @@
         <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>773</v>
+        <v>662</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>870</v>
+        <v>759</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>904</v>
+        <v>793</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13803,13 +10785,13 @@
         <v>179</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>905</v>
+        <v>794</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>906</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13820,13 +10802,13 @@
         <v>179</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>907</v>
+        <v>796</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13834,16 +10816,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>781</v>
+        <v>670</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>908</v>
+        <v>797</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13851,16 +10833,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>909</v>
+        <v>798</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>910</v>
+        <v>799</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>911</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13868,16 +10850,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>912</v>
+        <v>801</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>913</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13885,16 +10867,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>783</v>
+        <v>672</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>851</v>
+        <v>740</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>914</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13902,16 +10884,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>915</v>
+        <v>804</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>824</v>
+        <v>713</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>916</v>
+        <v>805</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13919,16 +10901,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>787</v>
+        <v>676</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>887</v>
+        <v>776</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>917</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Class!$A$1:$C$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$133</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$139</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Advanced'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Dump'!$A$1:$E$109</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="808">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -229,12 +229,6 @@
     <t xml:space="preserve">A sword of living flame whose length and heat can be controlled. Can be used to weld metal, set objects on fire, and burn enemies. You have Advantage when attacking beasts and other wildlife with this weapon.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sturdy Boots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of boots that provide steady footing in dangerous conditions. You are immune to hazards that impede your movement, such as grease slicks or ice. You have Advantage when reacting to traps. You cannot be knocked down or thrown back.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vorpal Blade</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
     <t xml:space="preserve">A curved scimitar that catches the wind and turns it into sharp blades. Using this weapon greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
   </si>
   <si>
+    <t xml:space="preserve">Windwalking Boots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of boots that hover just above the ground while worn. You are immune to hazards that impede your movement, such as grease slicks or ice. You can run across water without falling in.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alchemist</t>
   </si>
   <si>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Talisman of Jinn</t>
   </si>
   <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth desert winds, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, control sand, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
   </si>
   <si>
     <t xml:space="preserve">Corsair</t>
@@ -532,6 +532,76 @@
     <t xml:space="preserve">A bitter venom that causes intense pain. Can be used to inflict Mental damage, cripple the wills of enemies, or cloud the mind. You have Advantage when interrogating someone for information.</t>
   </si>
   <si>
+    <t xml:space="preserve">Forgemaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adamantine Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Defense</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A heavy shield that doubles as an anvil. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have Advantage when blocking attacks.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Philosopher Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liquid gem that can change one metal into another. Can be used to change strong metals into weak metals and vice versa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runic Warhammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted hammer with power over metal. Using this weapon damages and destroys other enchanted objects. Your strikes shatter ordinary metal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searing Carbuncle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ruby that catches light and produces burning beams. Can be used to make precise etchings, start fires, and cut through metals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fortification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that brings out the potential of an object. Can be used to make materials sturdier, sharper, or otherwise stronger.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that manipulates metal. Can be used to reshape metal, magnetize objects, and heat metallic materials.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gunslinger</t>
   </si>
   <si>
@@ -583,6 +653,15 @@
     <t xml:space="preserve">A ritual oil that knights don before battle. Can be used to attract monsters, grant immunity to curses, and create holy flames that eat away at magic without harming the body. You have Advantage when defending against magic while this kit is equipped.</t>
   </si>
   <si>
+    <t xml:space="preserve">Guardian Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetic shield that attracts arrows, bullets, and swords away from allies. When a nearby ally is attacked, you can choose to take damage in their place and gain a Fortune Point for doing so. Damage taken in this way cannot be reduced or avoided.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Holy Sword</t>
   </si>
   <si>
@@ -595,15 +674,6 @@
     <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive allies, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardian Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetic shield that attracts arrows, bullets, and swords away from allies. When a nearby ally is attacked, you can choose to take damage in their place and gain a Fortune Point for doing so. Damage taken in this way cannot be reduced or avoided.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Smiting Mace</t>
   </si>
   <si>
@@ -646,9 +716,6 @@
     <t xml:space="preserve">Vanguard Shield</t>
   </si>
   <si>
-    <t xml:space="preserve">Gear, Weapon, Defense</t>
-  </si>
-  <si>
     <t xml:space="preserve">A collapsible shield that can unfold from a bracer into a large shield with a flick of the wrist. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. You have Advantage when protecting others from harm.</t>
   </si>
   <si>
@@ -1093,6 +1160,12 @@
     <t xml:space="preserve">A dark knight that uses underhanded methods.</t>
   </si>
   <si>
+    <t xml:space="preserve">Smith, Reinforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An artificer that works with metals to create enchanted objects.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quickdraw, Trick Bullets</t>
   </si>
   <si>
@@ -1435,202 +1508,160 @@
     <t xml:space="preserve">Gladiator</t>
   </si>
   <si>
-    <t xml:space="preserve">Metallurgist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Decomposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. The greater the difference from the original, the more Knowledge is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gold ring with the power to reshape metal. The greater the difference from the original, the more Knowledge is required. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runehammer</t>
+    <t xml:space="preserve">A liquid gem that can change one metal into another. Can be used to change strong metals into weak metals and vice versa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marksman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmuter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Empower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Reshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Transmute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to make a target immune to magic, incapable of using magic, or to remove magic from an object. You can expend a Potion to create a bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
   </si>
   <si>
     <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrolic Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, High Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marksman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorcerer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over blood. Can be used to cause heart attacks, heal wounds, and track others by their blood. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over bone. Can be used to animate skeletons to serve. Equipping this kit allows you to raise one skeleton. You can raise additional skeletons by expending Mana Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that provides dominion over death. Can be used to foster decay, necrotize flesh, and cause harm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bird, usually a crow or raven, bound to you by blood. It follows your commands and can be pulled back from death so long as you are alive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmuter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Empower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Reshape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Transmute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to make a target immune to magic, incapable of using magic, or to remove magic from an object. You can expend a Potion to create a bomb that nullifies magic in an area. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flourish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
   </si>
   <si>
     <t xml:space="preserve">An indestructable axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to break through materials like stone and metal. Successful attacks deal an additional box of damage. You have Advantage when using this weapon to destroy objects. </t>
@@ -2466,7 +2497,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2526,6 +2557,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3220,10 +3257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3620,7 +3657,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>65</v>
@@ -3637,7 +3674,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>67</v>
@@ -3654,7 +3691,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>69</v>
@@ -4402,7 +4439,7 @@
         <v>169</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>170</v>
@@ -4419,7 +4456,7 @@
         <v>171</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>172</v>
@@ -4436,7 +4473,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>174</v>
@@ -4453,13 +4490,13 @@
         <v>175</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
@@ -4470,115 +4507,115 @@
         <v>177</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="13" t="s">
+    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="15" t="s">
+      <c r="D74" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="13" t="s">
+      <c r="E74" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="15" t="s">
+      <c r="C75" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="13" t="s">
+      <c r="D75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="15" t="s">
+      <c r="C76" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="D76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="D77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="15" t="s">
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="15" t="s">
+      <c r="D79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -4589,7 +4626,7 @@
         <v>194</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>195</v>
@@ -4606,13 +4643,13 @@
         <v>196</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -4620,13 +4657,13 @@
         <v>193</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,16 +4674,16 @@
         <v>193</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -4654,10 +4691,10 @@
         <v>193</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>204</v>
@@ -4674,830 +4711,932 @@
         <v>205</v>
       </c>
       <c r="D85" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E85" s="15" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24" t="s">
+      <c r="C86" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="D86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="26" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D87" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="26" t="s">
+      <c r="E92" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" s="26" t="s">
+      <c r="E94" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" s="26" t="s">
+      <c r="E95" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" s="26" t="s">
+      <c r="E96" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="B97" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="E97" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="10" t="s">
+      <c r="B98" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="E98" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="B99" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="E110" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="E111" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="E112" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D98" s="18" t="s">
+      <c r="E114" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D99" s="18" t="s">
+      <c r="E115" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101" s="18" t="s">
+      <c r="E133" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105" s="26" t="s">
+      <c r="E134" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D106" s="26" t="s">
+      <c r="E135" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D107" s="26" t="s">
+      <c r="E137" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E133" s="27" t="s">
+      <c r="E138" s="27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" s="25" t="s">
         <v>317</v>
       </c>
+      <c r="C139" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133"/>
+  <autoFilter ref="A1:E139"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5544,21 +5683,21 @@
         <v>70</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5566,10 +5705,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,21 +5716,21 @@
         <v>54</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5612,10 +5751,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5628,7 +5767,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -5642,10 +5781,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,10 +5792,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,10 +5803,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,10 +5814,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,10 +5825,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,10 +5836,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,10 +5847,10 @@
         <v>98</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,10 +5858,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,10 +5869,10 @@
         <v>124</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,10 +5880,10 @@
         <v>137</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,32 +5891,32 @@
         <v>152</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>353</v>
+      <c r="B13" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>355</v>
+      <c r="B14" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,102 +5924,113 @@
         <v>193</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>359</v>
+      <c r="A16" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>361</v>
+      <c r="A17" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>363</v>
+      <c r="A18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>365</v>
+      <c r="A19" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>367</v>
+      <c r="B20" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>371</v>
+      <c r="B22" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>373</v>
+      <c r="B23" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C23"/>
+  <autoFilter ref="A1:C24"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5899,8 +6049,8 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5934,16 +6084,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5951,16 +6101,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5968,16 +6118,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5985,16 +6135,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6002,16 +6152,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6019,16 +6169,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6039,13 +6189,13 @@
         <v>55</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6056,13 +6206,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6073,13 +6223,13 @@
         <v>55</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6090,13 +6240,13 @@
         <v>55</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6107,13 +6257,13 @@
         <v>55</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6124,13 +6274,13 @@
         <v>55</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6138,16 +6288,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6155,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>112</v>
@@ -6164,7 +6314,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6172,16 +6322,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6189,16 +6339,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6206,16 +6356,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6223,16 +6373,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6240,16 +6390,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6257,16 +6407,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6274,16 +6424,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6291,16 +6441,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6308,16 +6458,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6325,16 +6475,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6342,16 +6492,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>141</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6359,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>74</v>
@@ -6368,7 +6518,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6376,16 +6526,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6393,16 +6543,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6410,16 +6560,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6427,16 +6577,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6444,16 +6594,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6461,16 +6611,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6478,16 +6628,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6495,16 +6645,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E35" s="66" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6512,16 +6662,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6529,16 +6679,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,16 +6696,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,16 +6713,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,7 +6730,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -6591,7 +6741,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -6602,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -6613,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -6624,16 +6774,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,16 +6791,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6658,16 +6808,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,16 +6825,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,11 +6842,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C48" s="57"/>
       <c r="D48" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E48" s="58"/>
     </row>
@@ -6705,11 +6855,11 @@
         <v>5</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="57" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E49" s="58"/>
     </row>
@@ -6718,7 +6868,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="65"/>
@@ -6729,7 +6879,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="65"/>
@@ -6740,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
@@ -6751,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
@@ -6762,7 +6912,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -6773,7 +6923,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
@@ -6784,7 +6934,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
@@ -6795,7 +6945,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -6806,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -6817,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -6828,7 +6978,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
@@ -6839,7 +6989,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="65"/>
@@ -6892,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -6903,7 +7053,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -6914,7 +7064,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -6925,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -6936,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -6947,7 +7097,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -6958,7 +7108,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -6969,7 +7119,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -6980,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -6991,7 +7141,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -7002,7 +7152,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -7013,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -7061,89 +7211,89 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>469</v>
+        <v>171</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>473</v>
+        <v>166</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>475</v>
+        <v>175</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>476</v>
+        <v>38</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>477</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,16 +7301,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>478</v>
+        <v>169</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>479</v>
+        <v>25</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,7 +7318,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -7179,7 +7329,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -7190,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -7201,7 +7351,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -7212,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -7223,7 +7373,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -7234,16 +7384,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,16 +7401,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,16 +7418,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,16 +7435,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,10 +7452,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>25</v>
@@ -7317,7 +7467,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -7391,7 +7541,7 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -7426,31 +7576,31 @@
         <v>70</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7479,16 +7629,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7496,16 +7646,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7513,16 +7663,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7530,16 +7680,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7547,16 +7697,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7564,68 +7714,68 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7651,81 +7801,81 @@
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>523</v>
+        <v>177</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>38</v>
@@ -7736,13 +7886,13 @@
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>38</v>
@@ -7972,7 +8122,7 @@
         <v>527</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>528</v>
@@ -7989,7 +8139,7 @@
         <v>529</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>530</v>
@@ -8031,13 +8181,13 @@
         <v>531</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8051,10 +8201,10 @@
         <v>138</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8065,13 +8215,13 @@
         <v>531</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8082,13 +8232,13 @@
         <v>531</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8102,10 +8252,10 @@
         <v>118</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8116,13 +8266,13 @@
         <v>531</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8136,13 +8286,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8152,23 +8302,23 @@
         <v>155</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8190,16 +8340,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,16 +8357,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,16 +8374,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,16 +8391,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,16 +8408,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,16 +8425,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8381,13 +8531,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8398,13 +8548,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8421,7 +8571,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8432,13 +8582,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8449,13 +8599,13 @@
         <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8466,13 +8616,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8489,7 +8639,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8500,13 +8650,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8523,7 +8673,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8534,13 +8684,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8551,13 +8701,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8568,13 +8718,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8582,16 +8732,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8599,16 +8749,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8616,16 +8766,16 @@
         <v>70</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8633,16 +8783,16 @@
         <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8650,16 +8800,16 @@
         <v>70</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8667,322 +8817,322 @@
         <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8999,7 +9149,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9016,7 +9166,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9027,13 +9177,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9044,13 +9194,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9061,13 +9211,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9078,13 +9228,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9095,13 +9245,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9118,7 +9268,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9135,7 +9285,7 @@
         <v>142</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9146,13 +9296,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9163,13 +9313,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9180,13 +9330,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9194,16 +9344,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9211,16 +9361,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9228,16 +9378,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9245,16 +9395,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9262,16 +9412,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9279,16 +9429,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9299,13 +9449,13 @@
         <v>526</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9316,13 +9466,13 @@
         <v>526</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9333,13 +9483,13 @@
         <v>526</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9350,13 +9500,13 @@
         <v>526</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9367,13 +9517,13 @@
         <v>526</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9384,13 +9534,13 @@
         <v>526</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9398,16 +9548,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9415,16 +9565,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9432,16 +9582,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9449,16 +9599,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9466,16 +9616,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9483,16 +9633,16 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9503,13 +9653,13 @@
         <v>531</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9520,13 +9670,13 @@
         <v>531</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9537,13 +9687,13 @@
         <v>531</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9554,13 +9704,13 @@
         <v>531</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9571,13 +9721,13 @@
         <v>531</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9588,13 +9738,13 @@
         <v>531</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9697,13 +9847,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9717,10 +9867,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9734,10 +9884,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9751,10 +9901,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9768,10 +9918,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9782,13 +9932,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9799,13 +9949,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9816,13 +9966,13 @@
         <v>137</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9833,13 +9983,13 @@
         <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9850,13 +10000,13 @@
         <v>137</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9867,13 +10017,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9884,13 +10034,13 @@
         <v>137</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9898,16 +10048,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9915,16 +10065,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9932,16 +10082,16 @@
         <v>70</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9949,16 +10099,16 @@
         <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9966,16 +10116,16 @@
         <v>70</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9983,322 +10133,322 @@
         <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10309,13 +10459,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10326,13 +10476,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10343,13 +10493,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10360,13 +10510,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10377,13 +10527,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10394,13 +10544,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10411,13 +10561,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10428,13 +10578,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10445,13 +10595,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10462,13 +10612,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10479,13 +10629,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10496,13 +10646,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10510,16 +10660,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10527,16 +10677,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10544,16 +10694,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10561,16 +10711,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10578,16 +10728,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10595,16 +10745,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10615,13 +10765,13 @@
         <v>526</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10632,13 +10782,13 @@
         <v>526</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10649,13 +10799,13 @@
         <v>526</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10666,13 +10816,13 @@
         <v>526</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10683,13 +10833,13 @@
         <v>526</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10700,13 +10850,13 @@
         <v>526</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10714,16 +10864,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10731,16 +10881,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10748,16 +10898,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10765,16 +10915,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10782,16 +10932,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10799,16 +10949,16 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10819,13 +10969,13 @@
         <v>531</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10836,13 +10986,13 @@
         <v>531</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10853,13 +11003,13 @@
         <v>531</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10870,13 +11020,13 @@
         <v>531</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10887,13 +11037,13 @@
         <v>531</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10904,13 +11054,13 @@
         <v>531</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Class!$A$1:$C$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$139</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Kit!$A$1:$E$145</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Advanced'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Dump'!$A$1:$E$109</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="826">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -290,6 +290,48 @@
   </si>
   <si>
     <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. Can be used to freeze large volumes of water, create clouds of fog, and plummet the temperature of objects. You can expend a Potion to create a flash freeze bomb that deals damage and covers an area with a thin sheet of ice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevalier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bravo’s Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alchemical perfume that draws attention. Can be used to lure monsters, create distractions, and draw the focus of crowds. You have Advantage when making yourself standout, and when flirting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting Wit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slender rapier meant for duelling. Using this weapon, you can choose between dealing Physical or Mental damage. You have Advantage when provoking others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeyed Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A handful of alchemic candies that diminish pain and induce sleep. Can be used to endure harm, tranquilize unwary guards, and ease suffering. You have Advantage on rolls to resist discomfort or pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lover’s Embrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmed cloth that can change its properties on command. Can be extended into a length of sturdy rope, used as a whip, and made rigid as steel. Often worn as a scarf or other accessory. You have Advantage when climbing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp Retort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear, Weapon, Defense, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long dagger held in the off-hand, intended to parry and riposte. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. On a successful defense against a melee attack, the attacker takes a box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venomous Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of throwing knives coated in fey poison. Wounds made with this weapon bleed far more than they should. Successful attacks deal an additional box of Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Conjurer</t>
@@ -1124,6 +1166,12 @@
     <t xml:space="preserve">A specialist trained to use exceedingly dangerous substances.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bravado, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A courtier skilled in politics and swordplay.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summoning, Alchemy</t>
   </si>
   <si>
@@ -1508,7 +1556,31 @@
     <t xml:space="preserve">Gladiator</t>
   </si>
   <si>
-    <t xml:space="preserve">A liquid gem that can change one metal into another. Can be used to change strong metals into weak metals and vice versa.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A long dagger held in the off-hand, intended to parry and riposte. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. On a successful defense against a melee attack, the attacker takes a box of Physical damage.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A handful of alchemic candies that diminish pain and induce sleep. Can be used to endure harm, tranquilize unwary guards, and ease suffering. You have Advantage on rolls to resist discomfort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmed cloth that can change its properties on command. Can be extended into a length of sturdy rope, used as a whip, and made rigid as steel. Often worn as a scarf or other accessory.</t>
   </si>
   <si>
     <t xml:space="preserve">Marksman</t>
@@ -3257,10 +3329,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3800,924 +3872,924 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E38" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="E39" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E41" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E42" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="E44" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="E45" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="E46" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="E47" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="E48" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="E49" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="E50" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="E51" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="E52" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="E53" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="E54" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="E55" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="22" t="s">
+      <c r="E56" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="22" t="s">
+      <c r="E57" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="E58" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="22" t="s">
+      <c r="E59" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="22" t="s">
+      <c r="E60" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
+      <c r="E61" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="B62" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+      <c r="B63" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
+      <c r="B64" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
+      <c r="B65" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="B66" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
+      <c r="E66" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="B67" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="E67" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="E68" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="E69" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="E70" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="E71" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="E72" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="22" t="s">
+      <c r="E73" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="22" t="s">
+      <c r="E75" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="22" t="s">
+      <c r="E76" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" s="22" t="s">
+      <c r="E77" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="22" t="s">
+      <c r="E78" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="E79" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="E81" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="E82" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="E83" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="E84" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
@@ -4728,7 +4800,7 @@
         <v>208</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>209</v>
@@ -4745,13 +4817,13 @@
         <v>210</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
         <v>54</v>
       </c>
@@ -4759,13 +4831,13 @@
         <v>207</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="51.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4776,16 +4848,16 @@
         <v>207</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
         <v>54</v>
       </c>
@@ -4793,13 +4865,13 @@
         <v>207</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,833 +4882,935 @@
         <v>207</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="C92" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="D92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="26" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D94" s="26" t="s">
+      <c r="E98" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D95" s="26" t="s">
+      <c r="E100" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E95" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="26" t="s">
+      <c r="E101" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E96" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D97" s="26" t="s">
+      <c r="E102" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E103" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="24" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="B116" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="E123" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E125" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" s="26" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="E142" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D143" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="26" t="s">
+      <c r="E143" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D144" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B134" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B135" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E136" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B139" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>330</v>
+      <c r="E144" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E139"/>
+  <autoFilter ref="A1:E145"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5683,21 +5857,21 @@
         <v>70</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5705,10 +5879,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,21 +5890,21 @@
         <v>54</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5925,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5767,7 +5941,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -5781,10 +5955,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,10 +5966,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,10 +5977,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,10 +5988,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,109 +5999,109 @@
         <v>71</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>354</v>
+      <c r="B7" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>356</v>
+      <c r="A8" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>358</v>
+      <c r="A9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>360</v>
+      <c r="A10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>362</v>
+      <c r="A11" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>364</v>
+      <c r="A12" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>368</v>
+      <c r="B14" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>370</v>
+      <c r="B15" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,65 +6109,65 @@
         <v>207</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>374</v>
+      <c r="A17" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>376</v>
+      <c r="B18" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>378</v>
+      <c r="B19" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>380</v>
+      <c r="B20" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>382</v>
+      <c r="A21" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,36 +6175,47 @@
         <v>291</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>386</v>
+      <c r="A23" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>388</v>
+      <c r="A24" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C24"/>
+  <autoFilter ref="A1:C25"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6049,8 +6234,8 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6084,16 +6269,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6101,16 +6286,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6118,16 +6303,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6135,16 +6320,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6152,16 +6337,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6169,16 +6354,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6189,13 +6374,13 @@
         <v>55</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6206,13 +6391,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6223,13 +6408,13 @@
         <v>55</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6240,13 +6425,13 @@
         <v>55</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6257,13 +6442,13 @@
         <v>55</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6274,13 +6459,13 @@
         <v>55</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6288,16 +6473,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6305,16 +6490,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6322,16 +6507,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6339,16 +6524,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6356,16 +6541,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6373,16 +6558,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6390,16 +6575,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6407,16 +6592,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6424,16 +6609,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6441,16 +6626,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6458,16 +6643,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6475,16 +6660,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6492,16 +6677,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6509,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>74</v>
@@ -6518,7 +6703,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6526,16 +6711,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6543,16 +6728,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6560,16 +6745,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6577,16 +6762,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6594,16 +6779,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6611,16 +6796,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6628,16 +6813,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6645,16 +6830,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E35" s="66" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6662,16 +6847,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6679,16 +6864,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,16 +6881,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,16 +6898,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,7 +6915,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -6741,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -6752,7 +6937,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -6763,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -6774,16 +6959,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,16 +6976,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,16 +6993,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,16 +7010,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6842,11 +7027,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C48" s="57"/>
       <c r="D48" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E48" s="58"/>
     </row>
@@ -6855,11 +7040,11 @@
         <v>5</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E49" s="58"/>
     </row>
@@ -6868,7 +7053,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="65"/>
@@ -6879,7 +7064,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="65"/>
@@ -6890,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
@@ -6901,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
@@ -6912,7 +7097,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -6923,7 +7108,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
@@ -6934,7 +7119,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
@@ -6945,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -6956,7 +7141,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -6967,7 +7152,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -6978,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
@@ -6989,7 +7174,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="65"/>
@@ -7042,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -7053,7 +7238,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -7064,7 +7249,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -7075,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -7086,7 +7271,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -7097,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -7108,7 +7293,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -7119,7 +7304,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -7130,7 +7315,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -7141,7 +7326,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -7152,7 +7337,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -7163,162 +7348,162 @@
         <v>5</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="22" t="s">
+    <row r="80" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="22" t="s">
+      <c r="E80" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="22" t="s">
+      <c r="E82" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="23" t="s">
-        <v>481</v>
-      </c>
+      <c r="E84" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -7329,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -7340,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -7351,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -7362,7 +7547,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -7373,7 +7558,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -7384,16 +7569,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,16 +7586,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7418,16 +7603,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,16 +7620,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7452,10 +7637,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>25</v>
@@ -7467,7 +7652,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -7576,31 +7761,31 @@
         <v>70</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7629,16 +7814,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7646,16 +7831,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7663,16 +7848,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7680,16 +7865,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7697,16 +7882,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7714,68 +7899,68 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7801,104 +7986,104 @@
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8116,16 +8301,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8133,16 +8318,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8178,16 +8363,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8195,16 +8380,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8212,16 +8397,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8229,16 +8414,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8246,16 +8431,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8263,16 +8448,16 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8286,39 +8471,39 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8340,16 +8525,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,16 +8542,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,16 +8559,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8391,16 +8576,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,16 +8593,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,16 +8610,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8531,13 +8716,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8548,13 +8733,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8571,7 +8756,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8582,13 +8767,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8599,13 +8784,13 @@
         <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8616,13 +8801,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8630,16 +8815,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8647,16 +8832,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8664,16 +8849,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8681,16 +8866,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8698,16 +8883,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8715,16 +8900,16 @@
         <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8732,16 +8917,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8749,16 +8934,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8766,16 +8951,16 @@
         <v>70</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8783,16 +8968,16 @@
         <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8800,16 +8985,16 @@
         <v>70</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8817,322 +9002,322 @@
         <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9149,7 +9334,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9166,7 +9351,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9177,13 +9362,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9194,13 +9379,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9211,13 +9396,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9228,13 +9413,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9245,13 +9430,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9268,7 +9453,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9282,10 +9467,10 @@
         <v>48</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9296,13 +9481,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9313,13 +9498,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9330,13 +9515,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9344,16 +9529,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9361,16 +9546,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9378,16 +9563,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9395,16 +9580,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9412,16 +9597,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9429,16 +9614,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9446,16 +9631,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9463,16 +9648,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9480,16 +9665,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9497,16 +9682,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9514,16 +9699,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9531,16 +9716,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9548,16 +9733,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9565,16 +9750,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9582,16 +9767,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9599,16 +9784,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9616,16 +9801,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9633,16 +9818,16 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9650,16 +9835,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9667,16 +9852,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9684,16 +9869,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9701,16 +9886,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9718,16 +9903,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9735,16 +9920,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9847,13 +10032,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9867,10 +10052,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9884,10 +10069,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9901,10 +10086,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9918,10 +10103,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9932,13 +10117,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9946,16 +10131,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9963,16 +10148,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9980,16 +10165,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9997,16 +10182,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10014,16 +10199,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10031,16 +10216,16 @@
         <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10048,16 +10233,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10065,16 +10250,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10082,16 +10267,16 @@
         <v>70</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10099,16 +10284,16 @@
         <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10116,16 +10301,16 @@
         <v>70</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10133,322 +10318,322 @@
         <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10459,13 +10644,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10476,13 +10661,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10493,13 +10678,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10510,13 +10695,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10527,13 +10712,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10544,13 +10729,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10561,13 +10746,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10578,13 +10763,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10595,13 +10780,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10612,13 +10797,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10629,13 +10814,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10646,13 +10831,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>746</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10660,16 +10845,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10677,16 +10862,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,16 +10879,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10711,16 +10896,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10728,16 +10913,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10745,16 +10930,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10762,16 +10947,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10779,16 +10964,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10796,16 +10981,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10813,16 +10998,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10830,16 +11015,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10847,16 +11032,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10864,16 +11049,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10881,16 +11066,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10898,16 +11083,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10915,16 +11100,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10932,16 +11117,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10949,16 +11134,16 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10966,16 +11151,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10983,16 +11168,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11000,16 +11185,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11017,16 +11202,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11034,16 +11219,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11051,16 +11236,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="828">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -298,25 +298,25 @@
     <t xml:space="preserve">Bravo’s Charm</t>
   </si>
   <si>
-    <t xml:space="preserve">An alchemical perfume that draws attention. Can be used to lure monsters, create distractions, and draw the focus of crowds. You have Advantage when making yourself standout, and when flirting.</t>
+    <t xml:space="preserve">An alchemical perfume that draws attention. Can be used to lure monsters, create distractions, and draw the focus of crowds. You have Advantage when making yourself standout, when rallying others, and when flirting.</t>
   </si>
   <si>
     <t xml:space="preserve">Cutting Wit</t>
   </si>
   <si>
-    <t xml:space="preserve">A slender rapier meant for duelling. Using this weapon, you can choose between dealing Physical or Mental damage. You have Advantage when provoking others.</t>
+    <t xml:space="preserve">A slender rapier meant for duelling. Using this weapon, you can choose between dealing Physical or Mental damage. You have Advantage when intimidating or provoking others.</t>
   </si>
   <si>
     <t xml:space="preserve">Honeyed Words</t>
   </si>
   <si>
-    <t xml:space="preserve">A handful of alchemic candies that diminish pain and induce sleep. Can be used to endure harm, tranquilize unwary guards, and ease suffering. You have Advantage on rolls to resist discomfort or pain.</t>
+    <t xml:space="preserve">A handful of alchemic candies that diminish pain and induce sleep. Can be used to endure harm, tranquilize unwary guards, and ease suffering. You have Advantage on rolls to resist discomfort, or when bribing others.</t>
   </si>
   <si>
     <t xml:space="preserve">Lover’s Embrace</t>
   </si>
   <si>
-    <t xml:space="preserve">Charmed cloth that can change its properties on command. Can be extended into a length of sturdy rope, used as a whip, and made rigid as steel. Often worn as a scarf or other accessory. You have Advantage when climbing.</t>
+    <t xml:space="preserve">A charmed scarf that can change its properties on command. Can be extended into a length of sturdy rope, used as a whip, or made rigid as steel. You have Advantage when interrogating someone restrained by this kit.</t>
   </si>
   <si>
     <t xml:space="preserve">Sharp Retort</t>
@@ -325,7 +325,25 @@
     <t xml:space="preserve">Gear, Weapon, Defense, Reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">A long dagger held in the off-hand, intended to parry and riposte. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. On a successful defense against a melee attack, the attacker takes a box of Physical damage.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A long dagger held in the off-hand, intended to parry and riposte. Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Venomous Smile</t>
@@ -683,7 +701,7 @@
     <t xml:space="preserve">Warded Greatcoat</t>
   </si>
   <si>
-    <t xml:space="preserve">A leather jacket that reaches past the knees. Sigils of protection have been stitched into the lining, making the wearer resistant to bullets and blunt trauma. You have Advantage when defending against bludgeoning.</t>
+    <t xml:space="preserve">A leather jacket imbued with protective magic. You have Advantage when defending against bludgeoning, such as bullets or clubs.</t>
   </si>
   <si>
     <t xml:space="preserve">Knight</t>
@@ -1031,7 +1049,7 @@
     <t xml:space="preserve">Flying Broom</t>
   </si>
   <si>
-    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease.</t>
+    <t xml:space="preserve">An enchanted staff built using the same principles as airships. Can be used to fly through the air with ease and at high speeds. You have Advantage when dodging attacks while on the broom.</t>
   </si>
   <si>
     <t xml:space="preserve">Slowing Thorns</t>
@@ -1554,6 +1572,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gladiator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slender rapier meant for duelling. Using this weapon, you can choose between dealing Physical or Mental damage. You have Advantage when provoking others.</t>
   </si>
   <si>
     <r>
@@ -1575,6 +1596,9 @@
       </rPr>
       <t xml:space="preserve">Using this weapon to attack gives you Advantage on rolls to defend until the start of your next turn. On a successful defense against a melee attack, the attacker takes a box of Physical damage.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An alchemical perfume that draws attention. Can be used to lure monsters, create distractions, and draw the focus of crowds. You have Advantage when making yourself standout, and when flirting.</t>
   </si>
   <si>
     <t xml:space="preserve">A handful of alchemic candies that diminish pain and induce sleep. Can be used to endure harm, tranquilize unwary guards, and ease suffering. You have Advantage on rolls to resist discomfort.</t>
@@ -3331,8 +3355,8 @@
   </sheetPr>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5622,7 +5646,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>5</v>
       </c>
@@ -5633,7 +5657,7 @@
         <v>321</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>322</v>
@@ -7368,7 +7392,7 @@
         <v>62</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>89</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7385,7 +7409,7 @@
         <v>95</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,7 +7426,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>87</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,7 +7460,7 @@
         <v>25</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,7 +7477,7 @@
         <v>17</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,7 +7527,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -7514,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -7525,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -7536,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -7547,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -7558,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -7569,16 +7593,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,16 +7610,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,16 +7627,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,16 +7644,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7637,10 +7661,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>25</v>
@@ -7652,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -7764,13 +7788,13 @@
         <v>264</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7779,13 +7803,13 @@
         <v>264</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>409</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7814,16 +7838,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7831,16 +7855,16 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7848,16 +7872,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7865,16 +7889,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7882,16 +7906,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7899,68 +7923,68 @@
         <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7998,7 +8022,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8015,7 +8039,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8032,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8043,13 +8067,13 @@
         <v>278</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8066,7 +8090,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8083,7 +8107,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8301,16 +8325,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8318,16 +8342,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8363,16 +8387,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8380,16 +8404,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>152</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8397,16 +8421,16 @@
         <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8414,16 +8438,16 @@
         <v>54</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>228</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8431,16 +8455,16 @@
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8448,13 +8472,13 @@
         <v>54</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>234</v>
@@ -8471,13 +8495,13 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8487,23 +8511,23 @@
         <v>169</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8528,13 +8552,13 @@
         <v>193</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8548,10 +8572,10 @@
         <v>199</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,13 +8586,13 @@
         <v>193</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,13 +8603,13 @@
         <v>193</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8602,7 +8626,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="84.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8613,13 +8637,13 @@
         <v>193</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8716,13 +8740,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>409</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8733,13 +8757,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8756,7 +8780,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8767,13 +8791,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8790,7 +8814,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8801,13 +8825,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8824,7 +8848,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8835,13 +8859,13 @@
         <v>151</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>156</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8858,7 +8882,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8869,13 +8893,13 @@
         <v>151</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8886,13 +8910,13 @@
         <v>151</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8903,13 +8927,13 @@
         <v>151</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8920,13 +8944,13 @@
         <v>264</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>409</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8937,13 +8961,13 @@
         <v>264</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8954,13 +8978,13 @@
         <v>264</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8971,13 +8995,13 @@
         <v>264</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8994,7 +9018,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9005,13 +9029,13 @@
         <v>264</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9022,13 +9046,13 @@
         <v>236</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>475</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9039,13 +9063,13 @@
         <v>236</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9056,13 +9080,13 @@
         <v>236</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9073,13 +9097,13 @@
         <v>236</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9090,13 +9114,13 @@
         <v>236</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9107,13 +9131,13 @@
         <v>236</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9124,13 +9148,13 @@
         <v>278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9141,13 +9165,13 @@
         <v>278</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9158,13 +9182,13 @@
         <v>278</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9175,13 +9199,13 @@
         <v>278</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9192,13 +9216,13 @@
         <v>278</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9209,13 +9233,13 @@
         <v>278</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9226,13 +9250,13 @@
         <v>331</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>419</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9243,13 +9267,13 @@
         <v>331</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9260,13 +9284,13 @@
         <v>331</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>475</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9277,13 +9301,13 @@
         <v>331</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9294,13 +9318,13 @@
         <v>331</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9311,13 +9335,13 @@
         <v>331</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9334,7 +9358,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9351,7 +9375,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9362,13 +9386,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>409</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9379,13 +9403,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>409</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9396,13 +9420,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9413,13 +9437,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9430,13 +9454,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>409</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9453,7 +9477,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9470,7 +9494,7 @@
         <v>156</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9481,13 +9505,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9498,13 +9522,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9515,13 +9539,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>419</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9532,13 +9556,13 @@
         <v>250</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>409</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9549,13 +9573,13 @@
         <v>250</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9566,13 +9590,13 @@
         <v>250</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9583,13 +9607,13 @@
         <v>250</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>419</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9600,13 +9624,13 @@
         <v>250</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>409</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9617,13 +9641,13 @@
         <v>250</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9631,16 +9655,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9648,16 +9672,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>419</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9665,16 +9689,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9682,16 +9706,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9699,16 +9723,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9716,7 +9740,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>66</v>
@@ -9725,7 +9749,7 @@
         <v>409</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9736,13 +9760,13 @@
         <v>207</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>466</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9759,7 +9783,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9770,13 +9794,13 @@
         <v>207</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9787,13 +9811,13 @@
         <v>207</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>419</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9804,13 +9828,13 @@
         <v>207</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9821,13 +9845,13 @@
         <v>207</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9835,16 +9859,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9852,16 +9876,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9869,16 +9893,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>419</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9886,16 +9910,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>466</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9903,16 +9927,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9920,16 +9944,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>466</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10032,13 +10056,13 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10052,10 +10076,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10069,10 +10093,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10086,10 +10110,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10103,10 +10127,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10117,13 +10141,13 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10134,13 +10158,13 @@
         <v>151</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10151,13 +10175,13 @@
         <v>151</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10168,13 +10192,13 @@
         <v>151</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10185,13 +10209,13 @@
         <v>151</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10202,13 +10226,13 @@
         <v>151</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10219,13 +10243,13 @@
         <v>151</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>719</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10239,10 +10263,10 @@
         <v>265</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10253,13 +10277,13 @@
         <v>264</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10270,13 +10294,13 @@
         <v>264</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10287,13 +10311,13 @@
         <v>264</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10307,10 +10331,10 @@
         <v>276</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10321,13 +10345,13 @@
         <v>264</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10338,13 +10362,13 @@
         <v>236</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10355,13 +10379,13 @@
         <v>236</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10372,13 +10396,13 @@
         <v>236</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10389,13 +10413,13 @@
         <v>236</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10406,13 +10430,13 @@
         <v>236</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10423,13 +10447,13 @@
         <v>236</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10440,13 +10464,13 @@
         <v>278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10457,13 +10481,13 @@
         <v>278</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10474,13 +10498,13 @@
         <v>278</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10491,13 +10515,13 @@
         <v>278</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10508,13 +10532,13 @@
         <v>278</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10525,13 +10549,13 @@
         <v>278</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10542,13 +10566,13 @@
         <v>331</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10559,13 +10583,13 @@
         <v>331</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10576,13 +10600,13 @@
         <v>331</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10593,13 +10617,13 @@
         <v>331</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10610,13 +10634,13 @@
         <v>331</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10627,13 +10651,13 @@
         <v>331</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10644,13 +10668,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10661,13 +10685,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10678,13 +10702,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10695,13 +10719,13 @@
         <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10712,13 +10736,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10729,13 +10753,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10746,13 +10770,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10763,13 +10787,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10780,13 +10804,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10797,13 +10821,13 @@
         <v>40</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10814,13 +10838,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10831,13 +10855,13 @@
         <v>40</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10848,13 +10872,13 @@
         <v>250</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10865,13 +10889,13 @@
         <v>250</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10882,13 +10906,13 @@
         <v>250</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10899,13 +10923,13 @@
         <v>250</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10916,13 +10940,13 @@
         <v>250</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10933,13 +10957,13 @@
         <v>250</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10947,16 +10971,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10964,16 +10988,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10981,16 +11005,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10998,16 +11022,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11015,16 +11039,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11032,16 +11056,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11052,13 +11076,13 @@
         <v>207</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11069,13 +11093,13 @@
         <v>207</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11086,13 +11110,13 @@
         <v>207</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11103,13 +11127,13 @@
         <v>207</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11120,13 +11144,13 @@
         <v>207</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11137,13 +11161,13 @@
         <v>207</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11151,16 +11175,16 @@
         <v>54</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11168,16 +11192,16 @@
         <v>54</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11185,16 +11209,16 @@
         <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11202,16 +11226,16 @@
         <v>54</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11219,16 +11243,16 @@
         <v>54</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11236,16 +11260,16 @@
         <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kit" sheetId="1" state="visible" r:id="rId2"/>
@@ -115,25 +115,7 @@
     <t xml:space="preserve">Gear, Weapon, Ranged</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A set of transparent needles used to deliver poison. Using this weapon allows you to administer poison in the same action as an attack. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have Advantage when disguising your sneak attacks to avoid notice.</t>
-    </r>
+    <t xml:space="preserve">A set of transparent needles used to deliver poison. Using this weapon allows you to administer poison in the same action as an attack. You have Advantage when disguising your sneak attacks to avoid notice.</t>
   </si>
   <si>
     <t xml:space="preserve">Golden Silk</t>
@@ -643,25 +625,7 @@
     <t xml:space="preserve">Gear, Weapon, Ranged, Defense</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A pistol intended for formal duels. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Using this weapon gives you Advantage on rolls to defend against ranged attacks until the start of your next turn. You have Advantage when provoking others.</t>
-    </r>
+    <t xml:space="preserve">A pistol intended for formal duels. Using this weapon gives you Advantage on rolls to defend against ranged attacks until the start of your next turn. You have Advantage when provoking others.</t>
   </si>
   <si>
     <t xml:space="preserve">Magic Bullets</t>
@@ -817,25 +781,7 @@
     <t xml:space="preserve">Talisman of Divination</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have Advantage when identifying magic or magical effects.</t>
-    </r>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means. You have Advantage when identifying magic or magical effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Dreaming</t>
@@ -847,35 +793,7 @@
     <t xml:space="preserve">Talisman of Necromancy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">influences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
-    </r>
+    <t xml:space="preserve">A wand or other object that influences the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
   </si>
   <si>
     <t xml:space="preserve">Ranger</t>
@@ -1031,25 +949,7 @@
     <t xml:space="preserve">Talisman of Sun</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind nearby enemies, and stave off cold. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
-    </r>
+    <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind nearby enemies, and stave off cold. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Terra</t>
@@ -1130,25 +1030,7 @@
     <t xml:space="preserve">Talisman of Restoration</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The number of Physical boxes healed is equal to the result of the roll.</t>
-    </r>
+    <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects. The number of Physical boxes healed is equal to the result of the roll.</t>
   </si>
   <si>
     <t xml:space="preserve">Willow Perfume</t>
@@ -1202,13 +1084,13 @@
     <t xml:space="preserve">Perception, Knowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and skill with firearms.</t>
+    <t xml:space="preserve">An adventurer with a keen mind and a watchful eye. Known for their healing potions and miraculous tools.</t>
   </si>
   <si>
     <t xml:space="preserve">Magic, Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their ability to perform magic through talismans.</t>
+    <t xml:space="preserve">An adventurer with command over otherworldly forces. Known for their skill with Talismans.</t>
   </si>
   <si>
     <t xml:space="preserve">Agility, Cunning</t>
@@ -2677,7 +2559,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2737,12 +2619,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3437,9 +3313,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5916,48 +5792,6 @@
       <c r="E145" s="27" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E145"/>
@@ -5979,8 +5813,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/miracuse_data.xlsx
+++ b/miracuse_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kit" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old'!$A$1:$E$73</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Kit List Old 2'!$A$1:$E$109</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Kit_2!$A$1:$E$145</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$25</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Specialization!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="884">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -570,27 +570,7 @@
     <t xml:space="preserve">Talisman of Siphoning</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Talisman, </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Healing</t>
-    </r>
+    <t xml:space="preserve">Talisman, Healing</t>
   </si>
   <si>
     <t xml:space="preserve">A wand or other object that can be used to steal energy. Can be used to drain lifeforce from others, tap into the power of an enchanted object, and consume spirits. Restores one Physical box on successful attacks.</t>
@@ -599,27 +579,7 @@
     <t xml:space="preserve">Vim Drink</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Alchemy,</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Healing</t>
-    </r>
+    <t xml:space="preserve">Alchemy, Healing</t>
   </si>
   <si>
     <t xml:space="preserve">A distant ancestor to the modern alchemist potion. When consumed, the user expends a Mental box in exchange for recovering a Physical box. Can be used by others.</t>
@@ -748,29 +708,6 @@
     <t xml:space="preserve">Hospitaler Salts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Alchemy</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Healing</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive allies, jolt others out of a trance, and overpower odors. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary.</t>
   </si>
   <si>
@@ -870,29 +807,6 @@
     <t xml:space="preserve">Talisman of Necromancy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Talisman</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Healing</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">A wand or other object that influences the boundary between life and death. Can be used to heal Physical damage, summon ghosts for information, and create undead. The number of Physical boxes healed is equal to the result of the roll.</t>
   </si>
   <si>
@@ -1133,9 +1047,6 @@
     <t xml:space="preserve">Talisman of Restoration</t>
   </si>
   <si>
-    <t xml:space="preserve">Talisman, Healing</t>
-  </si>
-  <si>
     <t xml:space="preserve">A wand or other object that mends that which is broken. Can be used to fix damaged objects, repair enchanted items, and heal wounds. You have Advantage when repairing objects. The number of Physical boxes healed is equal to the result of the roll.</t>
   </si>
   <si>
@@ -1271,7 +1182,10 @@
     <t xml:space="preserve">An experienced sailor, either of the seas or the skies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spearman, Transformation</t>
+    <t xml:space="preserve">Choose your own kits!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spearman, Draughts</t>
   </si>
   <si>
     <t xml:space="preserve">A knight that mimics the power of dragons.</t>
@@ -2785,7 +2699,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2845,13 +2759,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3050,7 +2957,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3227,6 +3134,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3328,7 +3243,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3397,6 +3312,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE0C2CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEEEEE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3552,7 +3474,7 @@
   </sheetPr>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
@@ -5072,10 +4994,10 @@
         <v>222</v>
       </c>
       <c r="D89" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,13 +5008,13 @@
         <v>214</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,13 +5025,13 @@
         <v>214</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,16 +5039,16 @@
         <v>54</v>
       </c>
       <c r="B92" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,16 +5056,16 @@
         <v>54</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,16 +5073,16 @@
         <v>54</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,16 +5090,16 @@
         <v>54</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,16 +5107,16 @@
         <v>54</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C96" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="E96" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,118 +5124,118 @@
         <v>54</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C97" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="C98" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>246</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C99" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C100" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D100" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C101" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C102" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D102" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C103" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="27" t="s">
         <v>256</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,16 +5243,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,16 +5260,16 @@
         <v>22</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,16 +5277,16 @@
         <v>22</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,16 +5294,16 @@
         <v>22</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,16 +5311,16 @@
         <v>22</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C108" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,16 +5328,16 @@
         <v>22</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,16 +5345,16 @@
         <v>69</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,16 +5362,16 @@
         <v>69</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,16 +5379,16 @@
         <v>69</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,16 +5396,16 @@
         <v>69</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,16 +5413,16 @@
         <v>69</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,118 +5430,118 @@
         <v>69</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B116" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="E116" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D117" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D118" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D119" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D120" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,16 +5549,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,16 +5566,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,16 +5583,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,16 +5600,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,16 +5617,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,16 +5634,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,16 +5651,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,16 +5668,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,16 +5685,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,16 +5702,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,16 +5719,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,16 +5736,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,16 +5753,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,16 +5770,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,16 +5787,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,16 +5804,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,16 +5821,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,118 +5838,118 @@
         <v>5</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D140" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B141" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>345</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D142" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D143" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6078,21 +6000,21 @@
         <v>69</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6100,10 +6022,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,21 +6033,21 @@
         <v>54</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6146,10 +6068,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6162,7 +6084,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -6176,10 +6098,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,10 +6109,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,10 +6120,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,10 +6131,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,10 +6142,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,10 +6153,10 @@
         <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,10 +6164,10 @@
         <v>98</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,190 +6175,201 @@
         <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C11" s="40" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="39" t="s">
+    <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C12" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="42" t="s">
+    <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C16" s="7" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B17" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="42" t="s">
+    <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C20" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="37" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="36" t="s">
+    <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C22" s="43" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B23" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C25" s="48" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="45" t="s">
+    <row r="26" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C26" s="43" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>415</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C25"/>
+  <autoFilter ref="A1:C26"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6771,7 +6704,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6907,7 +6840,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6941,7 +6874,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6975,7 +6908,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6992,7 +6925,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7264,7 +7197,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7281,7 +7214,7 @@
         <v>36</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7298,7 +7231,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7315,7 +7248,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7332,7 +7265,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7349,7 +7282,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7383,7 +7316,7 @@
         <v>96</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7502,7 +7435,7 @@
         <v>36</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7536,7 +7469,7 @@
         <v>130</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7570,7 +7503,7 @@
         <v>162</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7621,7 +7554,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,7 +7639,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,7 +7673,7 @@
         <v>28</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +7724,7 @@
         <v>36</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7941,7 +7874,7 @@
         <v>217</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>219</v>
@@ -7978,7 +7911,7 @@
         <v>28</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,13 +7922,13 @@
         <v>214</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8006,13 +7939,13 @@
         <v>214</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,16 +7953,16 @@
         <v>54</v>
       </c>
       <c r="B92" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,16 +7970,16 @@
         <v>54</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8054,16 +7987,16 @@
         <v>54</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,16 +8004,16 @@
         <v>54</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,16 +8021,16 @@
         <v>54</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C96" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="E96" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,118 +8038,118 @@
         <v>54</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C97" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="C98" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>246</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C99" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C100" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D100" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C101" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C102" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D102" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="C103" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,16 +8157,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,16 +8174,16 @@
         <v>22</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,16 +8191,16 @@
         <v>22</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,16 +8208,16 @@
         <v>22</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,16 +8225,16 @@
         <v>22</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C108" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,16 +8242,16 @@
         <v>22</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,16 +8259,16 @@
         <v>69</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8343,16 +8276,16 @@
         <v>69</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8360,16 +8293,16 @@
         <v>69</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,16 +8310,16 @@
         <v>69</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,16 +8327,16 @@
         <v>69</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8411,118 +8344,118 @@
         <v>69</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D117" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D118" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D119" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D120" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D121" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,16 +8463,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8547,16 +8480,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8564,16 +8497,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,16 +8514,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8598,16 +8531,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8615,16 +8548,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,16 +8565,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8649,16 +8582,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,16 +8599,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8683,16 +8616,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8700,16 +8633,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8717,16 +8650,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8734,16 +8667,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8751,16 +8684,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8768,16 +8701,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8785,16 +8718,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,16 +8735,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,118 +8752,118 @@
         <v>5</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D140" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B142" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>345</v>
       </c>
       <c r="D142" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D143" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D144" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8984,920 +8917,920 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="49" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D3" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E4" s="52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="E5" s="52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="E6" s="52" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="50" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="49" t="s">
+    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D8" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E15" s="52" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>474</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>480</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="49" t="s">
+      <c r="E20" s="60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>491</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="58" t="s">
+      <c r="E27" s="64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="C25" s="57" t="s">
+      <c r="E29" s="64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C29" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>499</v>
-      </c>
-      <c r="E29" s="62" t="s">
+      <c r="D30" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C30" s="61" t="s">
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="63" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="E30" s="62" t="s">
+      <c r="D31" s="63" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C31" s="61" t="s">
+      <c r="E31" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="D31" s="61" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="D32" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="E32" s="68" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="65" t="s">
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="67" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="E32" s="66" t="s">
+      <c r="D33" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="E33" s="68" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="65" t="s">
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="D33" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="E33" s="66" t="s">
+      <c r="D34" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="E34" s="68" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="65" t="s">
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="D34" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="E34" s="66" t="s">
+      <c r="D35" s="67" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" s="65" t="s">
+      <c r="E35" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="D35" s="65" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="67" t="s">
         <v>526</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="D36" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E36" s="68" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" s="65" t="s">
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="67" t="s">
         <v>528</v>
       </c>
-      <c r="D36" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" s="66" t="s">
+      <c r="D37" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" s="68" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="65" t="s">
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="D37" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" s="66" t="s">
+      <c r="C38" s="55" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="52" t="s">
+      <c r="D38" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="E38" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="C38" s="53" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C39" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="D38" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" s="54" t="s">
+      <c r="D39" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E39" s="56" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C39" s="53" t="s">
+    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+    </row>
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+    </row>
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+    </row>
+    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+    </row>
+    <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="D39" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E39" s="54" t="s">
+      <c r="C44" s="59" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-    </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-    </row>
-    <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="56" t="s">
+      <c r="D44" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="C44" s="57" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C45" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="D44" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E44" s="58" t="s">
+      <c r="D45" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E45" s="60" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="C45" s="57" t="s">
+    <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>540</v>
       </c>
-      <c r="D45" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" s="58" t="s">
+      <c r="D46" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E46" s="60" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="C46" s="57" t="s">
+    <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C47" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="D46" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" s="58" t="s">
+      <c r="D47" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E47" s="60" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="C47" s="57" t="s">
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E48" s="60"/>
+    </row>
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E49" s="60"/>
+    </row>
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="66" t="s">
         <v>544</v>
       </c>
-      <c r="D47" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" s="58"/>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E49" s="58"/>
-    </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
+      <c r="A51" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="68"/>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
+      <c r="A52" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="68"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
+      <c r="A53" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
+      <c r="A54" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
+      <c r="A55" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
+      <c r="A56" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68"/>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
+      <c r="A57" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="68"/>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
+      <c r="A58" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="68"/>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
+      <c r="A59" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
+      <c r="A60" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="68"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
+      <c r="A61" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20"/>
@@ -9946,7 +9879,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -9957,7 +9890,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -9968,7 +9901,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -9979,7 +9912,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -9990,7 +9923,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -10001,7 +9934,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -10012,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -10023,7 +9956,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -10034,7 +9967,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -10045,7 +9978,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -10056,7 +9989,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -10067,7 +10000,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -10087,7 +10020,7 @@
         <v>48</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,7 +10037,7 @@
         <v>93</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10121,7 +10054,7 @@
         <v>28</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,7 +10088,7 @@
         <v>28</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,7 +10105,7 @@
         <v>17</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10222,7 +10155,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -10233,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -10244,7 +10177,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -10255,7 +10188,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -10266,7 +10199,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -10277,7 +10210,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -10288,16 +10221,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10305,16 +10238,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,16 +10255,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,16 +10272,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,10 +10289,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>28</v>
@@ -10371,7 +10304,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -10424,16 +10357,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10441,10 +10374,10 @@
         <v>5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>20</v>
@@ -10456,10 +10389,10 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>36</v>
@@ -10471,10 +10404,10 @@
         <v>5</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>28</v>
@@ -10486,7 +10419,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -10497,7 +10430,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -10558,31 +10491,31 @@
         <v>69</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10611,16 +10544,16 @@
         <v>69</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10628,16 +10561,16 @@
         <v>69</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>577</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10645,16 +10578,16 @@
         <v>69</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLe